--- a/out_test/tables/Fx2_gray/Fx2_gray_30.xlsx
+++ b/out_test/tables/Fx2_gray/Fx2_gray_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
   <si>
     <t>RWS</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Num_loose</t>
+  </si>
+  <si>
+    <t>Avg_NI_loose</t>
+  </si>
+  <si>
+    <t>Sigma_NI_loose</t>
+  </si>
+  <si>
+    <t>Avg_Num_loose</t>
+  </si>
+  <si>
+    <t>Sigma_Num_loose</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -662,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:MM3"/>
+  <dimension ref="A1:OA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -673,15 +685,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:351">
+    <row r="1" spans="1:391">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -711,13 +723,13 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -742,9 +754,7 @@
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
-      <c r="BI1" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -752,7 +762,9 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
+      <c r="BQ1" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -773,9 +785,7 @@
       <c r="CI1" s="1"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
-      <c r="CL1" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="CL1" s="1"/>
       <c r="CM1" s="1"/>
       <c r="CN1" s="1"/>
       <c r="CO1" s="1"/>
@@ -787,7 +797,9 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
+      <c r="CX1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -804,9 +816,7 @@
       <c r="DL1" s="1"/>
       <c r="DM1" s="1"/>
       <c r="DN1" s="1"/>
-      <c r="DO1" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="DO1" s="1"/>
       <c r="DP1" s="1"/>
       <c r="DQ1" s="1"/>
       <c r="DR1" s="1"/>
@@ -822,7 +832,9 @@
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
+      <c r="EE1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -835,9 +847,7 @@
       <c r="EO1" s="1"/>
       <c r="EP1" s="1"/>
       <c r="EQ1" s="1"/>
-      <c r="ER1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="ER1" s="1"/>
       <c r="ES1" s="1"/>
       <c r="ET1" s="1"/>
       <c r="EU1" s="1"/>
@@ -857,7 +867,9 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
+      <c r="FL1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
       <c r="FO1" s="1"/>
@@ -866,9 +878,7 @@
       <c r="FR1" s="1"/>
       <c r="FS1" s="1"/>
       <c r="FT1" s="1"/>
-      <c r="FU1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="FU1" s="1"/>
       <c r="FV1" s="1"/>
       <c r="FW1" s="1"/>
       <c r="FX1" s="1"/>
@@ -892,14 +902,14 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
+      <c r="GS1" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
       <c r="GW1" s="1"/>
-      <c r="GX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="GX1" s="1"/>
       <c r="GY1" s="1"/>
       <c r="GZ1" s="1"/>
       <c r="HA1" s="1"/>
@@ -927,10 +937,10 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
       <c r="ID1" s="1"/>
@@ -959,12 +969,12 @@
       <c r="JA1" s="1"/>
       <c r="JB1" s="1"/>
       <c r="JC1" s="1"/>
-      <c r="JD1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
+      <c r="JG1" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -990,16 +1000,16 @@
       <c r="KD1" s="1"/>
       <c r="KE1" s="1"/>
       <c r="KF1" s="1"/>
-      <c r="KG1" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="KG1" s="1"/>
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
       <c r="KK1" s="1"/>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
+      <c r="KN1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1032,7 +1042,9 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
+      <c r="LU1" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
@@ -1051,8 +1063,48 @@
       <c r="MK1" s="1"/>
       <c r="ML1" s="1"/>
       <c r="MM1" s="1"/>
+      <c r="MN1" s="1"/>
+      <c r="MO1" s="1"/>
+      <c r="MP1" s="1"/>
+      <c r="MQ1" s="1"/>
+      <c r="MR1" s="1"/>
+      <c r="MS1" s="1"/>
+      <c r="MT1" s="1"/>
+      <c r="MU1" s="1"/>
+      <c r="MV1" s="1"/>
+      <c r="MW1" s="1"/>
+      <c r="MX1" s="1"/>
+      <c r="MY1" s="1"/>
+      <c r="MZ1" s="1"/>
+      <c r="NA1" s="1"/>
+      <c r="NB1" s="1"/>
+      <c r="NC1" s="1"/>
+      <c r="ND1" s="1"/>
+      <c r="NE1" s="1"/>
+      <c r="NF1" s="1"/>
+      <c r="NG1" s="1"/>
+      <c r="NH1" s="1"/>
+      <c r="NI1" s="1"/>
+      <c r="NJ1" s="1"/>
+      <c r="NK1" s="1"/>
+      <c r="NL1" s="1"/>
+      <c r="NM1" s="1"/>
+      <c r="NN1" s="1"/>
+      <c r="NO1" s="1"/>
+      <c r="NP1" s="1"/>
+      <c r="NQ1" s="1"/>
+      <c r="NR1" s="1"/>
+      <c r="NS1" s="1"/>
+      <c r="NT1" s="1"/>
+      <c r="NU1" s="1"/>
+      <c r="NV1" s="1"/>
+      <c r="NW1" s="1"/>
+      <c r="NX1" s="1"/>
+      <c r="NY1" s="1"/>
+      <c r="NZ1" s="1"/>
+      <c r="OA1" s="1"/>
     </row>
-    <row r="2" spans="1:351">
+    <row r="2" spans="1:391">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1143,967 +1195,1087 @@
         <v>30</v>
       </c>
       <c r="AF2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AP2" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AR2" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AT2" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AV2" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>16</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AY2" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AZ2" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BB2" t="s">
         <v>20</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BC2" t="s">
         <v>21</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BD2" t="s">
         <v>22</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>24</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BG2" t="s">
         <v>25</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BH2" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>27</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BJ2" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BK2" t="s">
         <v>29</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BL2" t="s">
         <v>30</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BM2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>3</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>4</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BU2" t="s">
         <v>6</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>7</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>8</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>9</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BY2" t="s">
         <v>10</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BZ2" t="s">
         <v>11</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CA2" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CB2" t="s">
         <v>13</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CC2" t="s">
         <v>14</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CD2" t="s">
         <v>15</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CE2" t="s">
         <v>16</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CF2" t="s">
         <v>17</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CG2" t="s">
         <v>18</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CH2" t="s">
         <v>19</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CI2" t="s">
         <v>20</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CJ2" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CK2" t="s">
         <v>22</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CL2" t="s">
         <v>23</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CM2" t="s">
         <v>24</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CN2" t="s">
         <v>25</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CO2" t="s">
         <v>26</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CP2" t="s">
         <v>27</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CQ2" t="s">
         <v>28</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CR2" t="s">
         <v>29</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CS2" t="s">
         <v>30</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CT2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX2" t="s">
         <v>2</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CY2" t="s">
         <v>3</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CZ2" t="s">
         <v>4</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DA2" t="s">
         <v>5</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DB2" t="s">
         <v>6</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DC2" t="s">
         <v>7</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DD2" t="s">
         <v>8</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DE2" t="s">
         <v>9</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DF2" t="s">
         <v>10</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DG2" t="s">
         <v>11</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DH2" t="s">
         <v>12</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DI2" t="s">
         <v>13</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DJ2" t="s">
         <v>14</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DK2" t="s">
         <v>15</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DL2" t="s">
         <v>16</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DM2" t="s">
         <v>17</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DN2" t="s">
         <v>18</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DO2" t="s">
         <v>19</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DP2" t="s">
         <v>20</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DQ2" t="s">
         <v>21</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DR2" t="s">
         <v>22</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DS2" t="s">
         <v>23</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DT2" t="s">
         <v>24</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DU2" t="s">
         <v>25</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DV2" t="s">
         <v>26</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DW2" t="s">
         <v>27</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DX2" t="s">
         <v>28</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DY2" t="s">
         <v>29</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DZ2" t="s">
         <v>30</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE2" t="s">
         <v>2</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EF2" t="s">
         <v>3</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="EG2" t="s">
         <v>4</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="EH2" t="s">
         <v>5</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="EI2" t="s">
         <v>6</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EJ2" t="s">
         <v>7</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EK2" t="s">
         <v>8</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EL2" t="s">
         <v>9</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EM2" t="s">
         <v>10</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EN2" t="s">
         <v>11</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EO2" t="s">
         <v>12</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EP2" t="s">
         <v>13</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EQ2" t="s">
         <v>14</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="ER2" t="s">
         <v>15</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="ES2" t="s">
         <v>16</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="ET2" t="s">
         <v>17</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EU2" t="s">
         <v>18</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EV2" t="s">
         <v>19</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EW2" t="s">
         <v>20</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EX2" t="s">
         <v>21</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EY2" t="s">
         <v>22</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EZ2" t="s">
         <v>23</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FA2" t="s">
         <v>24</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FB2" t="s">
         <v>25</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FC2" t="s">
         <v>26</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FD2" t="s">
         <v>27</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FE2" t="s">
         <v>28</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FF2" t="s">
         <v>29</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="FG2" t="s">
         <v>30</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="FH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="FL2" t="s">
         <v>2</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="FM2" t="s">
         <v>3</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="FN2" t="s">
         <v>4</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="FO2" t="s">
         <v>5</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="FP2" t="s">
         <v>6</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="FQ2" t="s">
         <v>7</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FR2" t="s">
         <v>8</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FS2" t="s">
         <v>9</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FT2" t="s">
         <v>10</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FU2" t="s">
         <v>11</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FV2" t="s">
         <v>12</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FW2" t="s">
         <v>13</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FX2" t="s">
         <v>14</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FY2" t="s">
         <v>15</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FZ2" t="s">
         <v>16</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GA2" t="s">
         <v>17</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GB2" t="s">
         <v>18</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GC2" t="s">
         <v>19</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GD2" t="s">
         <v>20</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GE2" t="s">
         <v>21</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GF2" t="s">
         <v>22</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="GG2" t="s">
         <v>23</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="GH2" t="s">
         <v>24</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="GI2" t="s">
         <v>25</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="GJ2" t="s">
         <v>26</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="GK2" t="s">
         <v>27</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="GL2" t="s">
         <v>28</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="GM2" t="s">
         <v>29</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="GN2" t="s">
         <v>30</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="GO2" t="s">
+        <v>31</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>32</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>34</v>
+      </c>
+      <c r="GS2" t="s">
         <v>2</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="GT2" t="s">
         <v>3</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="GU2" t="s">
         <v>4</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="GV2" t="s">
         <v>5</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="GW2" t="s">
         <v>6</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="GX2" t="s">
         <v>7</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="GY2" t="s">
         <v>8</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="GZ2" t="s">
         <v>9</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HA2" t="s">
         <v>10</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HB2" t="s">
         <v>11</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HC2" t="s">
         <v>12</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HD2" t="s">
         <v>13</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HE2" t="s">
         <v>14</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="HF2" t="s">
         <v>15</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="HG2" t="s">
         <v>16</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="HH2" t="s">
         <v>17</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="HI2" t="s">
         <v>18</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="HJ2" t="s">
         <v>19</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="HK2" t="s">
         <v>20</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="HL2" t="s">
         <v>21</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="HM2" t="s">
         <v>22</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="HN2" t="s">
         <v>23</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="HO2" t="s">
         <v>24</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="HP2" t="s">
         <v>25</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="HQ2" t="s">
         <v>26</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="HR2" t="s">
         <v>27</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="HS2" t="s">
         <v>28</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="HT2" t="s">
         <v>29</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="HU2" t="s">
         <v>30</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="HV2" t="s">
+        <v>31</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>32</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>33</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>34</v>
+      </c>
+      <c r="HZ2" t="s">
         <v>2</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="IA2" t="s">
         <v>3</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="IB2" t="s">
         <v>4</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="IC2" t="s">
         <v>5</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="ID2" t="s">
         <v>6</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="IE2" t="s">
         <v>7</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="IF2" t="s">
         <v>8</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="IG2" t="s">
         <v>9</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="IH2" t="s">
         <v>10</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="II2" t="s">
         <v>11</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="IJ2" t="s">
         <v>12</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="IK2" t="s">
         <v>13</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="IL2" t="s">
         <v>14</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="IM2" t="s">
         <v>15</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="IN2" t="s">
         <v>16</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="IO2" t="s">
         <v>17</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="IP2" t="s">
         <v>18</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="IQ2" t="s">
         <v>19</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="IR2" t="s">
         <v>20</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="IS2" t="s">
         <v>21</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="IT2" t="s">
         <v>22</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="IU2" t="s">
         <v>23</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="IV2" t="s">
         <v>24</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="IW2" t="s">
         <v>25</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="IX2" t="s">
         <v>26</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="IY2" t="s">
         <v>27</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="IZ2" t="s">
         <v>28</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="JA2" t="s">
         <v>29</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="JB2" t="s">
         <v>30</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="JC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>34</v>
+      </c>
+      <c r="JG2" t="s">
         <v>2</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="JH2" t="s">
         <v>3</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="JI2" t="s">
         <v>4</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="JJ2" t="s">
         <v>5</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="JK2" t="s">
         <v>6</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="JL2" t="s">
         <v>7</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="JM2" t="s">
         <v>8</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="JN2" t="s">
         <v>9</v>
       </c>
-      <c r="II2" t="s">
+      <c r="JO2" t="s">
         <v>10</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="JP2" t="s">
         <v>11</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="JQ2" t="s">
         <v>12</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="JR2" t="s">
         <v>13</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="JS2" t="s">
         <v>14</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="JT2" t="s">
         <v>15</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="JU2" t="s">
         <v>16</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="JV2" t="s">
         <v>17</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="JW2" t="s">
         <v>18</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="JX2" t="s">
         <v>19</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="JY2" t="s">
         <v>20</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="JZ2" t="s">
         <v>21</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="KA2" t="s">
         <v>22</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="KB2" t="s">
         <v>23</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="KC2" t="s">
         <v>24</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="KD2" t="s">
         <v>25</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="KE2" t="s">
         <v>26</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="KF2" t="s">
         <v>27</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="KG2" t="s">
         <v>28</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="KH2" t="s">
         <v>29</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="KI2" t="s">
         <v>30</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="KJ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>33</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>34</v>
+      </c>
+      <c r="KN2" t="s">
         <v>2</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="KO2" t="s">
         <v>3</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="KP2" t="s">
         <v>4</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="KQ2" t="s">
         <v>5</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="KR2" t="s">
         <v>6</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="KS2" t="s">
         <v>7</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="KT2" t="s">
         <v>8</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="KU2" t="s">
         <v>9</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="KV2" t="s">
         <v>10</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="KW2" t="s">
         <v>11</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="KX2" t="s">
         <v>12</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="KY2" t="s">
         <v>13</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="KZ2" t="s">
         <v>14</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="LA2" t="s">
         <v>15</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="LB2" t="s">
         <v>16</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="LC2" t="s">
         <v>17</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="LD2" t="s">
         <v>18</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="LE2" t="s">
         <v>19</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="LF2" t="s">
         <v>20</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="LG2" t="s">
         <v>21</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="LH2" t="s">
         <v>22</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="LI2" t="s">
         <v>23</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="LJ2" t="s">
         <v>24</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="LK2" t="s">
         <v>25</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="LL2" t="s">
         <v>26</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="LM2" t="s">
         <v>27</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="LN2" t="s">
         <v>28</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="LO2" t="s">
         <v>29</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="LP2" t="s">
         <v>30</v>
       </c>
-      <c r="KG2" t="s">
-        <v>41</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>42</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>43</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>44</v>
-      </c>
-      <c r="KK2" t="s">
+      <c r="LQ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>32</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>34</v>
+      </c>
+      <c r="LU2" t="s">
         <v>45</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="LV2" t="s">
         <v>46</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="LW2" t="s">
         <v>47</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="LX2" t="s">
+        <v>48</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>49</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>50</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="MB2" t="s">
         <v>6</v>
       </c>
-      <c r="KO2" t="s">
-        <v>48</v>
-      </c>
-      <c r="KP2" t="s">
+      <c r="MC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="MD2" t="s">
         <v>8</v>
       </c>
-      <c r="KQ2" t="s">
-        <v>49</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>50</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>51</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>52</v>
-      </c>
-      <c r="KU2" t="s">
+      <c r="ME2" t="s">
         <v>53</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="MF2" t="s">
         <v>54</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="MG2" t="s">
         <v>55</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="MH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="ML2" t="s">
         <v>11</v>
       </c>
-      <c r="KY2" t="s">
-        <v>56</v>
-      </c>
-      <c r="KZ2" t="s">
+      <c r="MM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="MN2" t="s">
         <v>13</v>
       </c>
-      <c r="LA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>58</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>59</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>60</v>
-      </c>
-      <c r="LE2" t="s">
+      <c r="MO2" t="s">
         <v>61</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="MP2" t="s">
         <v>62</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="MQ2" t="s">
         <v>63</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="MR2" t="s">
+        <v>64</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>65</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>66</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>67</v>
+      </c>
+      <c r="MV2" t="s">
         <v>16</v>
       </c>
-      <c r="LI2" t="s">
-        <v>64</v>
-      </c>
-      <c r="LJ2" t="s">
+      <c r="MW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="MX2" t="s">
         <v>18</v>
       </c>
-      <c r="LK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>66</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>67</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>68</v>
-      </c>
-      <c r="LO2" t="s">
+      <c r="MY2" t="s">
         <v>69</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="MZ2" t="s">
         <v>70</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="NA2" t="s">
         <v>71</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="NB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>74</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="NF2" t="s">
         <v>21</v>
       </c>
-      <c r="LS2" t="s">
-        <v>72</v>
-      </c>
-      <c r="LT2" t="s">
+      <c r="NG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="NH2" t="s">
         <v>23</v>
       </c>
-      <c r="LU2" t="s">
-        <v>73</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>74</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>75</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>76</v>
-      </c>
-      <c r="LY2" t="s">
+      <c r="NI2" t="s">
         <v>77</v>
       </c>
-      <c r="LZ2" t="s">
+      <c r="NJ2" t="s">
         <v>78</v>
       </c>
-      <c r="MA2" t="s">
+      <c r="NK2" t="s">
         <v>79</v>
       </c>
-      <c r="MB2" t="s">
+      <c r="NL2" t="s">
         <v>80</v>
       </c>
-      <c r="MC2" t="s">
+      <c r="NM2" t="s">
         <v>81</v>
       </c>
-      <c r="MD2" t="s">
+      <c r="NN2" t="s">
         <v>82</v>
       </c>
-      <c r="ME2" t="s">
+      <c r="NO2" t="s">
         <v>83</v>
       </c>
-      <c r="MF2" t="s">
+      <c r="NP2" t="s">
         <v>84</v>
       </c>
-      <c r="MG2" t="s">
+      <c r="NQ2" t="s">
         <v>85</v>
       </c>
-      <c r="MH2" t="s">
+      <c r="NR2" t="s">
         <v>86</v>
       </c>
-      <c r="MI2" t="s">
+      <c r="NS2" t="s">
         <v>87</v>
       </c>
-      <c r="MJ2" t="s">
+      <c r="NT2" t="s">
         <v>88</v>
       </c>
-      <c r="MK2" t="s">
+      <c r="NU2" t="s">
         <v>89</v>
       </c>
-      <c r="ML2" t="s">
+      <c r="NV2" t="s">
         <v>90</v>
       </c>
-      <c r="MM2" t="s">
+      <c r="NW2" t="s">
         <v>91</v>
       </c>
+      <c r="NX2" t="s">
+        <v>92</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>93</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="1:351">
+    <row r="3" spans="1:391">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2111,1066 +2283,1114 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>104.4484</v>
+        <v>104.2441</v>
       </c>
       <c r="E3">
-        <v>104.4484</v>
+        <v>104.2441</v>
       </c>
       <c r="F3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>0.6356589147286823</v>
+      </c>
+      <c r="K3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.3643410852713181</v>
+      </c>
+      <c r="P3">
+        <v>-0.3458572319330415</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>1.005735006103746</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.06793043466521102</v>
+      </c>
+      <c r="U3">
+        <v>-2.480476666666689</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>37.54879999999999</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.6545372868217052</v>
+      </c>
+      <c r="Z3">
+        <v>1.5</v>
+      </c>
+      <c r="AA3">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="AB3">
+        <v>12</v>
+      </c>
+      <c r="AC3">
+        <v>1.1204990554865</v>
+      </c>
+      <c r="AD3">
+        <v>43</v>
+      </c>
+      <c r="AE3">
+        <v>38</v>
+      </c>
+      <c r="AF3">
+        <v>24.5</v>
+      </c>
+      <c r="AG3">
+        <v>10.75290658380328</v>
+      </c>
+      <c r="AH3">
+        <v>19.5</v>
+      </c>
+      <c r="AI3">
+        <v>10.75290658380328</v>
+      </c>
+      <c r="AJ3">
+        <v>25</v>
+      </c>
+      <c r="AK3">
+        <v>104.6529</v>
+      </c>
+      <c r="AL3">
+        <v>104.6529</v>
+      </c>
+      <c r="AM3">
+        <v>0.5</v>
+      </c>
+      <c r="AN3">
+        <v>10</v>
+      </c>
+      <c r="AO3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AP3">
+        <v>19</v>
+      </c>
+      <c r="AQ3">
+        <v>0.6374999999999997</v>
+      </c>
+      <c r="AR3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="AS3">
+        <v>19</v>
+      </c>
+      <c r="AT3">
+        <v>0.5</v>
+      </c>
+      <c r="AU3">
+        <v>10</v>
+      </c>
+      <c r="AV3">
+        <v>0.3625</v>
+      </c>
+      <c r="AW3">
+        <v>-0.1336306209562118</v>
+      </c>
+      <c r="AX3">
+        <v>19</v>
+      </c>
+      <c r="AY3">
+        <v>0.5752113833679781</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0.1340904436556507</v>
+      </c>
+      <c r="BB3">
+        <v>-1.264879999999991</v>
+      </c>
+      <c r="BC3">
+        <v>3</v>
+      </c>
+      <c r="BD3">
+        <v>19.18063333333334</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>1.675579861111111</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1.230769230769231</v>
+      </c>
+      <c r="BI3">
+        <v>13</v>
+      </c>
+      <c r="BJ3">
+        <v>1.191534200117365</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>13</v>
+      </c>
+      <c r="BR3">
+        <v>104.6529</v>
+      </c>
+      <c r="BS3">
+        <v>104.6529</v>
+      </c>
+      <c r="BT3">
         <v>0.5333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
         <v>0.7333333333333333</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>0.6466666666666666</v>
-      </c>
-      <c r="K3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.3533333333333334</v>
-      </c>
-      <c r="P3">
-        <v>-0.224852093638753</v>
-      </c>
-      <c r="Q3">
-        <v>13</v>
-      </c>
-      <c r="R3">
-        <v>0.990124857136076</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.07925683057850938</v>
-      </c>
-      <c r="U3">
-        <v>-0.6500099999999946</v>
-      </c>
-      <c r="V3">
-        <v>13</v>
-      </c>
-      <c r="W3">
-        <v>36.966</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0.8266343809523823</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1.363636363636364</v>
-      </c>
-      <c r="AB3">
-        <v>10</v>
-      </c>
-      <c r="AC3">
-        <v>1.052911614200008</v>
-      </c>
-      <c r="AD3">
-        <v>35</v>
-      </c>
-      <c r="AE3">
-        <v>34</v>
-      </c>
-      <c r="AF3">
-        <v>25</v>
-      </c>
-      <c r="AG3">
-        <v>89.49160000000002</v>
-      </c>
-      <c r="AH3">
-        <v>89.49159999999999</v>
-      </c>
-      <c r="AI3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AJ3">
-        <v>9</v>
-      </c>
-      <c r="AK3">
-        <v>0.8</v>
-      </c>
-      <c r="AL3">
-        <v>7</v>
-      </c>
-      <c r="AM3">
-        <v>0.647222222222222</v>
-      </c>
-      <c r="AN3">
-        <v>0.2</v>
-      </c>
-      <c r="AO3">
-        <v>7</v>
-      </c>
-      <c r="AP3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AQ3">
-        <v>9</v>
-      </c>
-      <c r="AR3">
-        <v>0.3527777777777777</v>
-      </c>
-      <c r="AS3">
-        <v>-0.2060123757483105</v>
-      </c>
-      <c r="AT3">
-        <v>13</v>
-      </c>
-      <c r="AU3">
-        <v>0.6767380383661908</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0.1115093630884105</v>
-      </c>
-      <c r="AX3">
-        <v>-0.8904633333333294</v>
-      </c>
-      <c r="AY3">
-        <v>13</v>
-      </c>
-      <c r="AZ3">
-        <v>22.56607666666665</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0.9027988888888889</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="BE3">
-        <v>11</v>
-      </c>
-      <c r="BF3">
-        <v>1.091923323315233</v>
-      </c>
-      <c r="BG3">
-        <v>24</v>
-      </c>
-      <c r="BH3">
-        <v>24</v>
-      </c>
-      <c r="BI3">
-        <v>18</v>
-      </c>
-      <c r="BJ3">
-        <v>87.79689999999998</v>
-      </c>
-      <c r="BK3">
-        <v>87.79689999999995</v>
-      </c>
-      <c r="BL3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="BM3">
-        <v>8</v>
-      </c>
-      <c r="BN3">
-        <v>0.7</v>
-      </c>
-      <c r="BO3">
-        <v>7</v>
-      </c>
-      <c r="BP3">
-        <v>0.6078431372549017</v>
-      </c>
-      <c r="BQ3">
-        <v>0.3</v>
-      </c>
-      <c r="BR3">
-        <v>7</v>
-      </c>
-      <c r="BS3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="BT3">
-        <v>8</v>
-      </c>
-      <c r="BU3">
-        <v>0.392156862745098</v>
-      </c>
-      <c r="BV3">
-        <v>-0.1856953381770537</v>
       </c>
       <c r="BW3">
         <v>11</v>
       </c>
       <c r="BX3">
-        <v>0.665253931162171</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="BY3">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="BZ3">
-        <v>0.1392648573336272</v>
+        <v>11</v>
       </c>
       <c r="CA3">
-        <v>-0.1904433333333344</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0.375</v>
+      </c>
+      <c r="CD3">
+        <v>-0.1562213581252533</v>
+      </c>
+      <c r="CE3">
         <v>7</v>
       </c>
-      <c r="CC3">
-        <v>19.79028666666667</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>1.442303725490193</v>
-      </c>
       <c r="CF3">
-        <v>0</v>
+        <v>0.6999380677658744</v>
       </c>
       <c r="CG3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="CH3">
+        <v>0.1928812594896053</v>
+      </c>
+      <c r="CI3">
+        <v>-1.652283333333315</v>
+      </c>
+      <c r="CJ3">
+        <v>7</v>
+      </c>
+      <c r="CK3">
+        <v>20.82208666666666</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>3.361946944444446</v>
+      </c>
+      <c r="CN3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CO3">
+        <v>2</v>
+      </c>
+      <c r="CP3">
+        <v>4</v>
+      </c>
+      <c r="CQ3">
+        <v>1.38629966509762</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>37</v>
+      </c>
+      <c r="CY3">
+        <v>103.8361</v>
+      </c>
+      <c r="CZ3">
+        <v>103.8361</v>
+      </c>
+      <c r="DA3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="DD3">
         <v>6</v>
       </c>
-      <c r="CI3">
-        <v>0.9687034577610123</v>
-      </c>
-      <c r="CJ3">
-        <v>17</v>
-      </c>
-      <c r="CK3">
-        <v>17</v>
-      </c>
-      <c r="CL3">
+      <c r="DE3">
+        <v>0.6407407407407407</v>
+      </c>
+      <c r="DF3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="DG3">
+        <v>6</v>
+      </c>
+      <c r="DH3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0.3592592592592593</v>
+      </c>
+      <c r="DK3">
+        <v>-0.3713906763540998</v>
+      </c>
+      <c r="DL3">
+        <v>31</v>
+      </c>
+      <c r="DM3">
+        <v>0.7320099661368694</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0.08841722398583167</v>
+      </c>
+      <c r="DP3">
+        <v>-1.444423333333347</v>
+      </c>
+      <c r="DQ3">
+        <v>5</v>
+      </c>
+      <c r="DR3">
+        <v>23.74284666666667</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0.9817757407407404</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>1.636363636363636</v>
+      </c>
+      <c r="DW3">
+        <v>18</v>
+      </c>
+      <c r="DX3">
+        <v>1.079303058759894</v>
+      </c>
+      <c r="DY3">
         <v>36</v>
       </c>
-      <c r="CM3">
-        <v>103.8361</v>
-      </c>
-      <c r="CN3">
-        <v>103.8361</v>
-      </c>
-      <c r="CO3">
+      <c r="DZ3">
+        <v>36</v>
+      </c>
+      <c r="EA3">
+        <v>18.5</v>
+      </c>
+      <c r="EB3">
+        <v>10.17554257357644</v>
+      </c>
+      <c r="EC3">
+        <v>18.5</v>
+      </c>
+      <c r="ED3">
+        <v>10.17554257357644</v>
+      </c>
+      <c r="EE3">
+        <v>48</v>
+      </c>
+      <c r="EF3">
+        <v>104.6529</v>
+      </c>
+      <c r="EG3">
+        <v>104.6529</v>
+      </c>
+      <c r="EH3">
+        <v>0.4</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="EK3">
+        <v>45</v>
+      </c>
+      <c r="EL3">
+        <v>0.6382978723404257</v>
+      </c>
+      <c r="EM3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="EN3">
+        <v>45</v>
+      </c>
+      <c r="EO3">
+        <v>0.6</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3">
+        <v>0.3617021276595745</v>
+      </c>
+      <c r="ER3">
+        <v>-0.5345224838248431</v>
+      </c>
+      <c r="ES3">
+        <v>33</v>
+      </c>
+      <c r="ET3">
+        <v>1.185239731832779</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0.04722495106187181</v>
+      </c>
+      <c r="EW3">
+        <v>-4.383626666666672</v>
+      </c>
+      <c r="EX3">
+        <v>7</v>
+      </c>
+      <c r="EY3">
+        <v>42.19244999999999</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0.6598530496453906</v>
+      </c>
+      <c r="FB3">
+        <v>0.875</v>
+      </c>
+      <c r="FC3">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="FD3">
+        <v>6</v>
+      </c>
+      <c r="FE3">
+        <v>1.071746455387283</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>119</v>
+      </c>
+      <c r="FM3">
+        <v>104.6529</v>
+      </c>
+      <c r="FN3">
+        <v>104.6529</v>
+      </c>
+      <c r="FO3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="FR3">
+        <v>57</v>
+      </c>
+      <c r="FS3">
+        <v>0.6344632768361587</v>
+      </c>
+      <c r="FT3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="FU3">
+        <v>57</v>
+      </c>
+      <c r="FV3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>0.3655367231638417</v>
+      </c>
+      <c r="FY3">
+        <v>-0.4902903378454573</v>
+      </c>
+      <c r="FZ3">
+        <v>97</v>
+      </c>
+      <c r="GA3">
+        <v>0.9818028499368208</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0.02973272527866666</v>
+      </c>
+      <c r="GD3">
+        <v>-1.435676666666708</v>
+      </c>
+      <c r="GE3">
+        <v>7</v>
+      </c>
+      <c r="GF3">
+        <v>31.68887333333334</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>0.3583469209039549</v>
+      </c>
+      <c r="GI3">
+        <v>2.25</v>
+      </c>
+      <c r="GJ3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="GK3">
+        <v>30</v>
+      </c>
+      <c r="GL3">
+        <v>1.064762139431568</v>
+      </c>
+      <c r="GM3">
+        <v>0</v>
+      </c>
+      <c r="GN3">
+        <v>0</v>
+      </c>
+      <c r="GS3">
+        <v>33</v>
+      </c>
+      <c r="GT3">
+        <v>104.6529</v>
+      </c>
+      <c r="GU3">
+        <v>104.6529</v>
+      </c>
+      <c r="GV3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="GW3">
+        <v>0</v>
+      </c>
+      <c r="GX3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="GY3">
+        <v>21</v>
+      </c>
+      <c r="GZ3">
+        <v>0.6395833333333334</v>
+      </c>
+      <c r="HA3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="HB3">
+        <v>21</v>
+      </c>
+      <c r="HC3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="HD3">
+        <v>0</v>
+      </c>
+      <c r="HE3">
+        <v>0.3604166666666667</v>
+      </c>
+      <c r="HF3">
+        <v>-0.2075143391598218</v>
+      </c>
+      <c r="HG3">
+        <v>8</v>
+      </c>
+      <c r="HH3">
+        <v>1.04111140764049</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0.07654615219832996</v>
+      </c>
+      <c r="HK3">
+        <v>-1.146436666666645</v>
+      </c>
+      <c r="HL3">
+        <v>4</v>
+      </c>
+      <c r="HM3">
+        <v>34.62850333333334</v>
+      </c>
+      <c r="HN3">
+        <v>0</v>
+      </c>
+      <c r="HO3">
+        <v>0.9479925</v>
+      </c>
+      <c r="HP3">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="HQ3">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="HR3">
+        <v>7</v>
+      </c>
+      <c r="HS3">
+        <v>1.118602586505637</v>
+      </c>
+      <c r="HT3">
+        <v>0</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HZ3">
+        <v>92</v>
+      </c>
+      <c r="IA3">
+        <v>100.2001</v>
+      </c>
+      <c r="IB3">
+        <v>100.2001</v>
+      </c>
+      <c r="IC3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="ID3">
+        <v>0</v>
+      </c>
+      <c r="IE3">
+        <v>0.8</v>
+      </c>
+      <c r="IF3">
+        <v>18</v>
+      </c>
+      <c r="IG3">
+        <v>0.643589743589744</v>
+      </c>
+      <c r="IH3">
+        <v>0.2</v>
+      </c>
+      <c r="II3">
+        <v>18</v>
+      </c>
+      <c r="IJ3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="IK3">
+        <v>0</v>
+      </c>
+      <c r="IL3">
+        <v>0.3564102564102563</v>
+      </c>
+      <c r="IM3">
+        <v>-0.3402069087198826</v>
+      </c>
+      <c r="IN3">
+        <v>67</v>
+      </c>
+      <c r="IO3">
+        <v>0.9588406893940419</v>
+      </c>
+      <c r="IP3">
+        <v>0</v>
+      </c>
+      <c r="IQ3">
+        <v>0.02032460999664635</v>
+      </c>
+      <c r="IR3">
+        <v>-0.742133333333328</v>
+      </c>
+      <c r="IS3">
+        <v>67</v>
+      </c>
+      <c r="IT3">
+        <v>34.93445666666666</v>
+      </c>
+      <c r="IU3">
+        <v>0</v>
+      </c>
+      <c r="IV3">
+        <v>0.2581488644688644</v>
+      </c>
+      <c r="IW3">
         <v>0.5</v>
       </c>
-      <c r="CP3">
-        <v>32</v>
-      </c>
-      <c r="CQ3">
+      <c r="IX3">
+        <v>1.25</v>
+      </c>
+      <c r="IY3">
+        <v>57</v>
+      </c>
+      <c r="IZ3">
+        <v>1.060492271998279</v>
+      </c>
+      <c r="JA3">
+        <v>91</v>
+      </c>
+      <c r="JB3">
+        <v>1</v>
+      </c>
+      <c r="JC3">
+        <v>91</v>
+      </c>
+      <c r="JD3">
+        <v>0</v>
+      </c>
+      <c r="JE3">
+        <v>1</v>
+      </c>
+      <c r="JF3">
+        <v>0</v>
+      </c>
+      <c r="JG3">
+        <v>49</v>
+      </c>
+      <c r="JH3">
+        <v>94.67290000000001</v>
+      </c>
+      <c r="JI3">
+        <v>94.67290000000001</v>
+      </c>
+      <c r="JJ3">
+        <v>0.5</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
         <v>0.7333333333333333</v>
       </c>
-      <c r="CR3">
+      <c r="JM3">
+        <v>14</v>
+      </c>
+      <c r="JN3">
+        <v>0.6381944444444448</v>
+      </c>
+      <c r="JO3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="JP3">
+        <v>14</v>
+      </c>
+      <c r="JQ3">
+        <v>0.5</v>
+      </c>
+      <c r="JR3">
+        <v>0</v>
+      </c>
+      <c r="JS3">
+        <v>0.3618055555555555</v>
+      </c>
+      <c r="JT3">
+        <v>-0.5570860145311359</v>
+      </c>
+      <c r="JU3">
+        <v>43</v>
+      </c>
+      <c r="JV3">
+        <v>0.7436886062065233</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="JX3">
+        <v>0.03382676042714333</v>
+      </c>
+      <c r="JY3">
+        <v>-0.4802500000000123</v>
+      </c>
+      <c r="JZ3">
+        <v>10</v>
+      </c>
+      <c r="KA3">
+        <v>24.57744666666667</v>
+      </c>
+      <c r="KB3">
+        <v>0</v>
+      </c>
+      <c r="KC3">
+        <v>0.5081690277777778</v>
+      </c>
+      <c r="KD3">
         <v>4</v>
       </c>
-      <c r="CS3">
-        <v>0.6219047619047618</v>
-      </c>
-      <c r="CT3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="CU3">
-        <v>4</v>
-      </c>
-      <c r="CV3">
-        <v>0.5</v>
-      </c>
-      <c r="CW3">
-        <v>32</v>
-      </c>
-      <c r="CX3">
-        <v>0.3780952380952382</v>
-      </c>
-      <c r="CY3">
-        <v>-0.1927966292127584</v>
-      </c>
-      <c r="CZ3">
-        <v>18</v>
-      </c>
-      <c r="DA3">
-        <v>0.7113585993272675</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0.09114523341607043</v>
-      </c>
-      <c r="DD3">
-        <v>-1.313363333333342</v>
-      </c>
-      <c r="DE3">
-        <v>18</v>
-      </c>
-      <c r="DF3">
-        <v>23.07301666666665</v>
-      </c>
-      <c r="DG3">
-        <v>0</v>
-      </c>
-      <c r="DH3">
-        <v>1.028964476190476</v>
-      </c>
-      <c r="DI3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>1.416666666666667</v>
-      </c>
-      <c r="DK3">
+      <c r="KE3">
+        <v>0</v>
+      </c>
+      <c r="KF3">
+        <v>7</v>
+      </c>
+      <c r="KG3">
+        <v>1.0421547972218</v>
+      </c>
+      <c r="KH3">
+        <v>48</v>
+      </c>
+      <c r="KI3">
+        <v>43</v>
+      </c>
+      <c r="KJ3">
+        <v>27</v>
+      </c>
+      <c r="KK3">
+        <v>12.19631091765047</v>
+      </c>
+      <c r="KL3">
+        <v>22</v>
+      </c>
+      <c r="KM3">
+        <v>12.19631091765047</v>
+      </c>
+      <c r="KN3">
         <v>25</v>
       </c>
-      <c r="DL3">
-        <v>1.068098909794912</v>
-      </c>
-      <c r="DM3">
-        <v>35</v>
-      </c>
-      <c r="DN3">
-        <v>35</v>
-      </c>
-      <c r="DO3">
-        <v>9</v>
-      </c>
-      <c r="DP3">
+      <c r="KO3">
         <v>104.6529</v>
       </c>
-      <c r="DQ3">
+      <c r="KP3">
         <v>104.6529</v>
       </c>
-      <c r="DR3">
+      <c r="KQ3">
         <v>0.4666666666666667</v>
       </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0.7</v>
-      </c>
-      <c r="DU3">
-        <v>4</v>
-      </c>
-      <c r="DV3">
-        <v>0.6208333333333333</v>
-      </c>
-      <c r="DW3">
-        <v>0.3</v>
-      </c>
-      <c r="DX3">
-        <v>4</v>
-      </c>
-      <c r="DY3">
+      <c r="KR3">
+        <v>5</v>
+      </c>
+      <c r="KS3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="KT3">
+        <v>14</v>
+      </c>
+      <c r="KU3">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="KV3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="KW3">
+        <v>14</v>
+      </c>
+      <c r="KX3">
         <v>0.5333333333333333</v>
       </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EA3">
-        <v>0.3791666666666667</v>
-      </c>
-      <c r="EB3">
-        <v>0</v>
-      </c>
-      <c r="EC3">
+      <c r="KY3">
+        <v>5</v>
+      </c>
+      <c r="KZ3">
+        <v>0.3499999999999999</v>
+      </c>
+      <c r="LA3">
+        <v>-0.3521370402398374</v>
+      </c>
+      <c r="LB3">
+        <v>13</v>
+      </c>
+      <c r="LC3">
+        <v>0.919118505867191</v>
+      </c>
+      <c r="LD3">
+        <v>0</v>
+      </c>
+      <c r="LE3">
+        <v>0.07860817101184621</v>
+      </c>
+      <c r="LF3">
+        <v>-2.917393333333351</v>
+      </c>
+      <c r="LG3">
+        <v>13</v>
+      </c>
+      <c r="LH3">
+        <v>32.40300333333334</v>
+      </c>
+      <c r="LI3">
+        <v>0</v>
+      </c>
+      <c r="LJ3">
+        <v>1.348276944444445</v>
+      </c>
+      <c r="LK3">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="LL3">
+        <v>1.357142857142857</v>
+      </c>
+      <c r="LM3">
         <v>7</v>
       </c>
-      <c r="ED3">
-        <v>0.9386431864148205</v>
-      </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0.2154403814612023</v>
-      </c>
-      <c r="EG3">
-        <v>0</v>
-      </c>
-      <c r="EH3">
+      <c r="LN3">
+        <v>1.200983988280556</v>
+      </c>
+      <c r="LO3">
+        <v>0</v>
+      </c>
+      <c r="LP3">
+        <v>0</v>
+      </c>
+      <c r="LU3">
+        <v>0.6</v>
+      </c>
+      <c r="LV3">
+        <v>6</v>
+      </c>
+      <c r="LW3">
+        <v>13</v>
+      </c>
+      <c r="LX3">
+        <v>119</v>
+      </c>
+      <c r="LY3">
+        <v>43.83333333333334</v>
+      </c>
+      <c r="LZ3">
+        <v>35.22506998652459</v>
+      </c>
+      <c r="MA3">
+        <v>0.4</v>
+      </c>
+      <c r="MB3">
+        <v>0</v>
+      </c>
+      <c r="MC3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="MD3">
+        <v>19</v>
+      </c>
+      <c r="ME3">
+        <v>0.4722222222222223</v>
+      </c>
+      <c r="MF3">
+        <v>0.7611111111111111</v>
+      </c>
+      <c r="MG3">
+        <v>0.6374740804183195</v>
+      </c>
+      <c r="MH3">
+        <v>0.04044505494044732</v>
+      </c>
+      <c r="MI3">
+        <v>0.01242259987499887</v>
+      </c>
+      <c r="MJ3">
+        <v>0.007378962604085104</v>
+      </c>
+      <c r="MK3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="ML3">
+        <v>19</v>
+      </c>
+      <c r="MM3">
+        <v>0.6</v>
+      </c>
+      <c r="MN3">
+        <v>0</v>
+      </c>
+      <c r="MO3">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="MP3">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="MQ3">
+        <v>0.3625259195816805</v>
+      </c>
+      <c r="MR3">
+        <v>0.01242259987499883</v>
+      </c>
+      <c r="MS3">
+        <v>0.04044505494044731</v>
+      </c>
+      <c r="MT3">
+        <v>0.007378962604085149</v>
+      </c>
+      <c r="MU3">
+        <v>-0.5345224838248431</v>
+      </c>
+      <c r="MV3">
+        <v>33</v>
+      </c>
+      <c r="MW3">
+        <v>1.185239731832779</v>
+      </c>
+      <c r="MX3">
+        <v>0</v>
+      </c>
+      <c r="MY3">
+        <v>-0.3123860300252375</v>
+      </c>
+      <c r="MZ3">
+        <v>0.9004036577351888</v>
+      </c>
+      <c r="NA3">
+        <v>0.09318061711599511</v>
+      </c>
+      <c r="NB3">
+        <v>0.1580683724567594</v>
+      </c>
+      <c r="NC3">
+        <v>0.2056869798554296</v>
+      </c>
+      <c r="ND3">
+        <v>0.05513687789923368</v>
+      </c>
+      <c r="NE3">
+        <v>-4.383626666666672</v>
+      </c>
+      <c r="NF3">
         <v>7</v>
       </c>
-      <c r="EI3">
-        <v>33.41404666666668</v>
-      </c>
-      <c r="EJ3">
-        <v>0</v>
-      </c>
-      <c r="EK3">
-        <v>4.973937083333334</v>
-      </c>
-      <c r="EL3">
+      <c r="NG3">
+        <v>42.19244999999999</v>
+      </c>
+      <c r="NH3">
+        <v>0</v>
+      </c>
+      <c r="NI3">
+        <v>-2.133382777777781</v>
+      </c>
+      <c r="NJ3">
+        <v>30.15259166666667</v>
+      </c>
+      <c r="NK3">
+        <v>1.391999370091558</v>
+      </c>
+      <c r="NL3">
+        <v>0.875</v>
+      </c>
+      <c r="NM3">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="NN3">
+        <v>1.548611111111111</v>
+      </c>
+      <c r="NO3">
+        <v>1.230769230769231</v>
+      </c>
+      <c r="NP3">
         <v>2</v>
       </c>
-      <c r="EM3">
-        <v>2</v>
-      </c>
-      <c r="EN3">
-        <v>2</v>
-      </c>
-      <c r="EO3">
-        <v>1.393103889650616</v>
-      </c>
-      <c r="EP3">
-        <v>0</v>
-      </c>
-      <c r="EQ3">
-        <v>0</v>
-      </c>
-      <c r="ER3">
-        <v>18</v>
-      </c>
-      <c r="ES3">
-        <v>104.6529</v>
-      </c>
-      <c r="ET3">
-        <v>104.6529</v>
-      </c>
-      <c r="EU3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="EV3">
-        <v>0</v>
-      </c>
-      <c r="EW3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="EX3">
-        <v>13</v>
-      </c>
-      <c r="EY3">
-        <v>0.6235294117647058</v>
-      </c>
-      <c r="EZ3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="FA3">
-        <v>13</v>
-      </c>
-      <c r="FB3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="FC3">
-        <v>0</v>
-      </c>
-      <c r="FD3">
-        <v>0.3764705882352941</v>
-      </c>
-      <c r="FE3">
-        <v>-0.2065804760374618</v>
-      </c>
-      <c r="FF3">
-        <v>8</v>
-      </c>
-      <c r="FG3">
-        <v>1.00254981396308</v>
-      </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
-        <v>0.1573144761801865</v>
-      </c>
-      <c r="FJ3">
-        <v>-2.366943333333325</v>
-      </c>
-      <c r="FK3">
-        <v>8</v>
-      </c>
-      <c r="FL3">
-        <v>32.35850666666667</v>
-      </c>
-      <c r="FM3">
-        <v>0</v>
-      </c>
-      <c r="FN3">
-        <v>2.447959019607844</v>
-      </c>
-      <c r="FO3">
-        <v>1.5</v>
-      </c>
-      <c r="FP3">
-        <v>1.461538461538461</v>
-      </c>
-      <c r="FQ3">
-        <v>12</v>
-      </c>
-      <c r="FR3">
-        <v>1.327357968617602</v>
-      </c>
-      <c r="FS3">
-        <v>0</v>
-      </c>
-      <c r="FT3">
-        <v>0</v>
-      </c>
-      <c r="FU3">
-        <v>30</v>
-      </c>
-      <c r="FV3">
-        <v>99.40090000000001</v>
-      </c>
-      <c r="FW3">
-        <v>99.40090000000004</v>
-      </c>
-      <c r="FX3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="FY3">
-        <v>0</v>
-      </c>
-      <c r="FZ3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="GA3">
-        <v>9</v>
-      </c>
-      <c r="GB3">
-        <v>0.6298850574712641</v>
-      </c>
-      <c r="GC3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="GD3">
-        <v>9</v>
-      </c>
-      <c r="GE3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="GF3">
-        <v>0</v>
-      </c>
-      <c r="GG3">
-        <v>0.3701149425287358</v>
-      </c>
-      <c r="GH3">
-        <v>-0.267261241912424</v>
-      </c>
-      <c r="GI3">
-        <v>25</v>
-      </c>
-      <c r="GJ3">
-        <v>0.7625192397513133</v>
-      </c>
-      <c r="GK3">
-        <v>0</v>
-      </c>
-      <c r="GL3">
-        <v>0.04994041748421939</v>
-      </c>
-      <c r="GM3">
-        <v>-1.806326666666664</v>
-      </c>
-      <c r="GN3">
-        <v>8</v>
-      </c>
-      <c r="GO3">
-        <v>25.36222333333334</v>
-      </c>
-      <c r="GP3">
-        <v>0</v>
-      </c>
-      <c r="GQ3">
-        <v>1.184484137931036</v>
-      </c>
-      <c r="GR3">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="GS3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="GT3">
-        <v>6</v>
-      </c>
-      <c r="GU3">
-        <v>1.046359030496961</v>
-      </c>
-      <c r="GV3">
-        <v>29</v>
-      </c>
-      <c r="GW3">
-        <v>8</v>
-      </c>
-      <c r="GX3">
-        <v>19</v>
-      </c>
-      <c r="GY3">
-        <v>104.6529</v>
-      </c>
-      <c r="GZ3">
-        <v>104.6529</v>
-      </c>
-      <c r="HA3">
-        <v>0.5</v>
-      </c>
-      <c r="HB3">
-        <v>0</v>
-      </c>
-      <c r="HC3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="HD3">
-        <v>4</v>
-      </c>
-      <c r="HE3">
-        <v>0.648148148148148</v>
-      </c>
-      <c r="HF3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="HG3">
-        <v>4</v>
-      </c>
-      <c r="HH3">
-        <v>0.5</v>
-      </c>
-      <c r="HI3">
-        <v>0</v>
-      </c>
-      <c r="HJ3">
-        <v>0.3518518518518518</v>
-      </c>
-      <c r="HK3">
-        <v>-0.11124150514094</v>
-      </c>
-      <c r="HL3">
-        <v>7</v>
-      </c>
-      <c r="HM3">
-        <v>1.023084609421852</v>
-      </c>
-      <c r="HN3">
-        <v>0</v>
-      </c>
-      <c r="HO3">
-        <v>0.1261588356604393</v>
-      </c>
-      <c r="HP3">
-        <v>-0.6397466666666816</v>
-      </c>
-      <c r="HQ3">
-        <v>7</v>
-      </c>
-      <c r="HR3">
-        <v>37.27512333333335</v>
-      </c>
-      <c r="HS3">
-        <v>0</v>
-      </c>
-      <c r="HT3">
-        <v>1.422426666666667</v>
-      </c>
-      <c r="HU3">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="HV3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="HW3">
-        <v>10</v>
-      </c>
-      <c r="HX3">
-        <v>1.250250900205528</v>
-      </c>
-      <c r="HY3">
-        <v>0</v>
-      </c>
-      <c r="HZ3">
-        <v>0</v>
-      </c>
-      <c r="IA3">
-        <v>51</v>
-      </c>
-      <c r="IB3">
-        <v>104.6529</v>
-      </c>
-      <c r="IC3">
-        <v>104.6529</v>
-      </c>
-      <c r="ID3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="IE3">
-        <v>0</v>
-      </c>
-      <c r="IF3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="IG3">
-        <v>11</v>
-      </c>
-      <c r="IH3">
-        <v>0.6326666666666668</v>
-      </c>
-      <c r="II3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="IJ3">
-        <v>11</v>
-      </c>
-      <c r="IK3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="IL3">
-        <v>0</v>
-      </c>
-      <c r="IM3">
-        <v>0.3673333333333334</v>
-      </c>
-      <c r="IN3">
-        <v>-0.4522670168666447</v>
-      </c>
-      <c r="IO3">
-        <v>35</v>
-      </c>
-      <c r="IP3">
-        <v>0.9216422051799447</v>
-      </c>
-      <c r="IQ3">
-        <v>0</v>
-      </c>
-      <c r="IR3">
-        <v>0.06136648458655714</v>
-      </c>
-      <c r="IS3">
-        <v>-2.316626666666679</v>
-      </c>
-      <c r="IT3">
-        <v>10</v>
-      </c>
-      <c r="IU3">
-        <v>30.45846333333333</v>
-      </c>
-      <c r="IV3">
-        <v>0</v>
-      </c>
-      <c r="IW3">
-        <v>0.5698219333333339</v>
-      </c>
-      <c r="IX3">
-        <v>2</v>
-      </c>
-      <c r="IY3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="IZ3">
-        <v>10</v>
-      </c>
-      <c r="JA3">
-        <v>1.105556050028311</v>
-      </c>
-      <c r="JB3">
-        <v>0</v>
-      </c>
-      <c r="JC3">
-        <v>0</v>
-      </c>
-      <c r="JD3">
-        <v>103</v>
-      </c>
-      <c r="JE3">
-        <v>104.6529</v>
-      </c>
-      <c r="JF3">
-        <v>104.6529</v>
-      </c>
-      <c r="JG3">
-        <v>0.5</v>
-      </c>
-      <c r="JH3">
-        <v>0</v>
-      </c>
-      <c r="JI3">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="JJ3">
-        <v>97</v>
-      </c>
-      <c r="JK3">
-        <v>0.6457516339869285</v>
-      </c>
-      <c r="JL3">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="JM3">
-        <v>97</v>
-      </c>
-      <c r="JN3">
-        <v>0.5</v>
-      </c>
-      <c r="JO3">
-        <v>0</v>
-      </c>
-      <c r="JP3">
-        <v>0.3542483660130717</v>
-      </c>
-      <c r="JQ3">
-        <v>-0.4522670168665827</v>
-      </c>
-      <c r="JR3">
-        <v>75</v>
-      </c>
-      <c r="JS3">
-        <v>1.040820074429404</v>
-      </c>
-      <c r="JT3">
-        <v>0</v>
-      </c>
-      <c r="JU3">
-        <v>0.02625918348998932</v>
-      </c>
-      <c r="JV3">
-        <v>-0.0408999999999935</v>
-      </c>
-      <c r="JW3">
-        <v>36</v>
-      </c>
-      <c r="JX3">
-        <v>36.69352333333332</v>
-      </c>
-      <c r="JY3">
-        <v>0</v>
-      </c>
-      <c r="JZ3">
-        <v>0.2751777124183009</v>
-      </c>
-      <c r="KA3">
-        <v>1.75</v>
-      </c>
-      <c r="KB3">
-        <v>1.5</v>
-      </c>
-      <c r="KC3">
-        <v>11</v>
-      </c>
-      <c r="KD3">
-        <v>1.069361063179038</v>
-      </c>
-      <c r="KE3">
-        <v>0</v>
-      </c>
-      <c r="KF3">
-        <v>0</v>
-      </c>
-      <c r="KG3">
-        <v>0.5</v>
-      </c>
-      <c r="KH3">
-        <v>5</v>
-      </c>
-      <c r="KI3">
-        <v>9</v>
-      </c>
-      <c r="KJ3">
-        <v>103</v>
-      </c>
-      <c r="KK3">
-        <v>40</v>
-      </c>
-      <c r="KL3">
-        <v>34.57166469813104</v>
-      </c>
-      <c r="KM3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="KN3">
-        <v>0</v>
-      </c>
-      <c r="KO3">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="KP3">
-        <v>97</v>
-      </c>
-      <c r="KQ3">
-        <v>0.48</v>
-      </c>
-      <c r="KR3">
-        <v>0.7533333333333333</v>
-      </c>
-      <c r="KS3">
-        <v>0.6341858387799564</v>
-      </c>
-      <c r="KT3">
-        <v>0.01632993161855452</v>
-      </c>
-      <c r="KU3">
-        <v>0.04521553322083516</v>
-      </c>
-      <c r="KV3">
-        <v>0.01116127612780876</v>
-      </c>
-      <c r="KW3">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="KX3">
-        <v>97</v>
-      </c>
-      <c r="KY3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="KZ3">
-        <v>0</v>
-      </c>
-      <c r="LA3">
-        <v>0.2466666666666667</v>
-      </c>
-      <c r="LB3">
-        <v>0.52</v>
-      </c>
-      <c r="LC3">
-        <v>0.3658141612200435</v>
-      </c>
-      <c r="LD3">
-        <v>0.04521553322083512</v>
-      </c>
-      <c r="LE3">
-        <v>0.01632993161855452</v>
-      </c>
-      <c r="LF3">
-        <v>0.01116127612780876</v>
-      </c>
-      <c r="LG3">
-        <v>-0.4522670168666447</v>
-      </c>
-      <c r="LH3">
-        <v>35</v>
-      </c>
-      <c r="LI3">
-        <v>1.040820074429404</v>
-      </c>
-      <c r="LJ3">
-        <v>0</v>
-      </c>
-      <c r="LK3">
-        <v>-0.2444712029823259</v>
-      </c>
-      <c r="LL3">
-        <v>0.9853479778818203</v>
-      </c>
-      <c r="LM3">
-        <v>0.1173078722756749</v>
-      </c>
-      <c r="LN3">
-        <v>0.1818297166024355</v>
-      </c>
-      <c r="LO3">
-        <v>0.04698270541690446</v>
-      </c>
-      <c r="LP3">
-        <v>0.06742130205511511</v>
-      </c>
-      <c r="LQ3">
-        <v>-2.366943333333325</v>
-      </c>
-      <c r="LR3">
-        <v>8</v>
-      </c>
-      <c r="LS3">
-        <v>37.27512333333335</v>
-      </c>
-      <c r="LT3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>-1.072843333333336</v>
-      </c>
-      <c r="LV3">
-        <v>34.03993266666667</v>
-      </c>
-      <c r="LW3">
-        <v>1.937864483071896</v>
-      </c>
-      <c r="LX3">
-        <v>1.5</v>
-      </c>
-      <c r="LY3">
-        <v>2</v>
-      </c>
-      <c r="LZ3">
-        <v>1.783333333333334</v>
-      </c>
-      <c r="MA3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="MB3">
-        <v>2</v>
-      </c>
-      <c r="MC3">
-        <v>1.473260073260073</v>
-      </c>
-      <c r="MD3">
-        <v>1.069361063179038</v>
-      </c>
-      <c r="ME3">
-        <v>1.393103889650616</v>
-      </c>
-      <c r="MF3">
-        <v>1.229125974336219</v>
-      </c>
-      <c r="MG3">
-        <v>18</v>
-      </c>
-      <c r="MH3">
-        <v>36</v>
-      </c>
-      <c r="MI3">
-        <v>29</v>
-      </c>
-      <c r="MJ3">
-        <v>6.870225614927067</v>
-      </c>
-      <c r="MK3">
-        <v>96.99477999999999</v>
-      </c>
-      <c r="ML3">
-        <v>7.057594923314883</v>
-      </c>
-      <c r="MM3">
-        <v>104.4484</v>
+      <c r="NQ3">
+        <v>1.492826617826618</v>
+      </c>
+      <c r="NR3">
+        <v>1.064762139431568</v>
+      </c>
+      <c r="NS3">
+        <v>1.38629966509762</v>
+      </c>
+      <c r="NT3">
+        <v>1.172321505803338</v>
+      </c>
+      <c r="NU3">
+        <v>37</v>
+      </c>
+      <c r="NV3">
+        <v>92</v>
+      </c>
+      <c r="NW3">
+        <v>55.5</v>
+      </c>
+      <c r="NX3">
+        <v>21.5</v>
+      </c>
+      <c r="NY3">
+        <v>100.7383</v>
+      </c>
+      <c r="NZ3">
+        <v>3.839457477300663</v>
+      </c>
+      <c r="OA3">
+        <v>104.2441</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AE1"/>
-    <mergeCell ref="AF1:BH1"/>
-    <mergeCell ref="BI1:CK1"/>
-    <mergeCell ref="CL1:DN1"/>
-    <mergeCell ref="DO1:EQ1"/>
-    <mergeCell ref="ER1:FT1"/>
-    <mergeCell ref="FU1:GW1"/>
-    <mergeCell ref="GX1:HZ1"/>
-    <mergeCell ref="IA1:JC1"/>
-    <mergeCell ref="JD1:KF1"/>
-    <mergeCell ref="KG1:MM1"/>
+    <mergeCell ref="C1:AI1"/>
+    <mergeCell ref="AJ1:BP1"/>
+    <mergeCell ref="BQ1:CW1"/>
+    <mergeCell ref="CX1:ED1"/>
+    <mergeCell ref="EE1:FK1"/>
+    <mergeCell ref="FL1:GR1"/>
+    <mergeCell ref="GS1:HY1"/>
+    <mergeCell ref="HZ1:JF1"/>
+    <mergeCell ref="JG1:KM1"/>
+    <mergeCell ref="KN1:LT1"/>
+    <mergeCell ref="LU1:OA1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/Fx2_gray/Fx2_gray_30.xlsx
+++ b/out_test/tables/Fx2_gray/Fx2_gray_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
   <si>
     <t>RWS</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>Sigma_Num_loose</t>
+  </si>
+  <si>
+    <t>I_start</t>
+  </si>
+  <si>
+    <t>GR_start</t>
+  </si>
+  <si>
+    <t>Pr_start</t>
+  </si>
+  <si>
+    <t>Pr_min</t>
+  </si>
+  <si>
+    <t>NI_Pr_min</t>
+  </si>
+  <si>
+    <t>Pr_max</t>
+  </si>
+  <si>
+    <t>NI_Pr_max</t>
+  </si>
+  <si>
+    <t>Pr_avg</t>
+  </si>
+  <si>
+    <t>NI_Pr_avg</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -674,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:OA3"/>
+  <dimension ref="A1:RV3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -685,15 +712,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:391">
+    <row r="1" spans="1:490">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -727,9 +754,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -738,7 +763,9 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
+      <c r="AS1" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -762,9 +789,7 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -782,7 +807,9 @@
       <c r="CF1" s="1"/>
       <c r="CG1" s="1"/>
       <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
+      <c r="CI1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -797,9 +824,7 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -826,15 +851,15 @@
       <c r="DV1" s="1"/>
       <c r="DW1" s="1"/>
       <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
+      <c r="DY1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -867,12 +892,12 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="FL1" s="1"/>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
+      <c r="FO1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="FP1" s="1"/>
       <c r="FQ1" s="1"/>
       <c r="FR1" s="1"/>
@@ -902,9 +927,7 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="GS1" s="1"/>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
@@ -916,7 +939,9 @@
       <c r="HB1" s="1"/>
       <c r="HC1" s="1"/>
       <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
+      <c r="HE1" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="HF1" s="1"/>
       <c r="HG1" s="1"/>
       <c r="HH1" s="1"/>
@@ -937,9 +962,7 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="HZ1" s="1"/>
       <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
@@ -960,7 +983,9 @@
       <c r="IR1" s="1"/>
       <c r="IS1" s="1"/>
       <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
+      <c r="IU1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="IV1" s="1"/>
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
@@ -972,9 +997,7 @@
       <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="JG1" s="1"/>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -1004,12 +1027,12 @@
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
+      <c r="KK1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="KN1" s="1"/>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1042,15 +1065,15 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="LU1" s="1"/>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
       <c r="LY1" s="1"/>
       <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
+      <c r="MA1" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="MB1" s="1"/>
       <c r="MC1" s="1"/>
       <c r="MD1" s="1"/>
@@ -1092,7 +1115,9 @@
       <c r="NN1" s="1"/>
       <c r="NO1" s="1"/>
       <c r="NP1" s="1"/>
-      <c r="NQ1" s="1"/>
+      <c r="NQ1" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="NR1" s="1"/>
       <c r="NS1" s="1"/>
       <c r="NT1" s="1"/>
@@ -1103,8 +1128,109 @@
       <c r="NY1" s="1"/>
       <c r="NZ1" s="1"/>
       <c r="OA1" s="1"/>
+      <c r="OB1" s="1"/>
+      <c r="OC1" s="1"/>
+      <c r="OD1" s="1"/>
+      <c r="OE1" s="1"/>
+      <c r="OF1" s="1"/>
+      <c r="OG1" s="1"/>
+      <c r="OH1" s="1"/>
+      <c r="OI1" s="1"/>
+      <c r="OJ1" s="1"/>
+      <c r="OK1" s="1"/>
+      <c r="OL1" s="1"/>
+      <c r="OM1" s="1"/>
+      <c r="ON1" s="1"/>
+      <c r="OO1" s="1"/>
+      <c r="OP1" s="1"/>
+      <c r="OQ1" s="1"/>
+      <c r="OR1" s="1"/>
+      <c r="OS1" s="1"/>
+      <c r="OT1" s="1"/>
+      <c r="OU1" s="1"/>
+      <c r="OV1" s="1"/>
+      <c r="OW1" s="1"/>
+      <c r="OX1" s="1"/>
+      <c r="OY1" s="1"/>
+      <c r="OZ1" s="1"/>
+      <c r="PA1" s="1"/>
+      <c r="PB1" s="1"/>
+      <c r="PC1" s="1"/>
+      <c r="PD1" s="1"/>
+      <c r="PE1" s="1"/>
+      <c r="PF1" s="1"/>
+      <c r="PG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="PH1" s="1"/>
+      <c r="PI1" s="1"/>
+      <c r="PJ1" s="1"/>
+      <c r="PK1" s="1"/>
+      <c r="PL1" s="1"/>
+      <c r="PM1" s="1"/>
+      <c r="PN1" s="1"/>
+      <c r="PO1" s="1"/>
+      <c r="PP1" s="1"/>
+      <c r="PQ1" s="1"/>
+      <c r="PR1" s="1"/>
+      <c r="PS1" s="1"/>
+      <c r="PT1" s="1"/>
+      <c r="PU1" s="1"/>
+      <c r="PV1" s="1"/>
+      <c r="PW1" s="1"/>
+      <c r="PX1" s="1"/>
+      <c r="PY1" s="1"/>
+      <c r="PZ1" s="1"/>
+      <c r="QA1" s="1"/>
+      <c r="QB1" s="1"/>
+      <c r="QC1" s="1"/>
+      <c r="QD1" s="1"/>
+      <c r="QE1" s="1"/>
+      <c r="QF1" s="1"/>
+      <c r="QG1" s="1"/>
+      <c r="QH1" s="1"/>
+      <c r="QI1" s="1"/>
+      <c r="QJ1" s="1"/>
+      <c r="QK1" s="1"/>
+      <c r="QL1" s="1"/>
+      <c r="QM1" s="1"/>
+      <c r="QN1" s="1"/>
+      <c r="QO1" s="1"/>
+      <c r="QP1" s="1"/>
+      <c r="QQ1" s="1"/>
+      <c r="QR1" s="1"/>
+      <c r="QS1" s="1"/>
+      <c r="QT1" s="1"/>
+      <c r="QU1" s="1"/>
+      <c r="QV1" s="1"/>
+      <c r="QW1" s="1"/>
+      <c r="QX1" s="1"/>
+      <c r="QY1" s="1"/>
+      <c r="QZ1" s="1"/>
+      <c r="RA1" s="1"/>
+      <c r="RB1" s="1"/>
+      <c r="RC1" s="1"/>
+      <c r="RD1" s="1"/>
+      <c r="RE1" s="1"/>
+      <c r="RF1" s="1"/>
+      <c r="RG1" s="1"/>
+      <c r="RH1" s="1"/>
+      <c r="RI1" s="1"/>
+      <c r="RJ1" s="1"/>
+      <c r="RK1" s="1"/>
+      <c r="RL1" s="1"/>
+      <c r="RM1" s="1"/>
+      <c r="RN1" s="1"/>
+      <c r="RO1" s="1"/>
+      <c r="RP1" s="1"/>
+      <c r="RQ1" s="1"/>
+      <c r="RR1" s="1"/>
+      <c r="RS1" s="1"/>
+      <c r="RT1" s="1"/>
+      <c r="RU1" s="1"/>
+      <c r="RV1" s="1"/>
     </row>
-    <row r="2" spans="1:391">
+    <row r="2" spans="1:490">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1207,1075 +1333,1372 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AT2" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AU2" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AV2" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>6</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BA2" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BC2" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BE2" t="s">
         <v>14</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BG2" t="s">
         <v>16</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BH2" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BI2" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BJ2" t="s">
         <v>19</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BK2" t="s">
         <v>20</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BL2" t="s">
         <v>21</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BM2" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BN2" t="s">
         <v>23</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BO2" t="s">
         <v>24</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BP2" t="s">
         <v>25</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BQ2" t="s">
         <v>26</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BR2" t="s">
         <v>27</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BS2" t="s">
         <v>28</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BT2" t="s">
         <v>29</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BU2" t="s">
         <v>30</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BV2" t="s">
         <v>31</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BW2" t="s">
         <v>32</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BX2" t="s">
         <v>33</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BY2" t="s">
         <v>34</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BZ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>40</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI2" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CJ2" t="s">
         <v>3</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CK2" t="s">
         <v>4</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CL2" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CM2" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CN2" t="s">
         <v>7</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CO2" t="s">
         <v>8</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CP2" t="s">
         <v>9</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CQ2" t="s">
         <v>10</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CR2" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CS2" t="s">
         <v>12</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CT2" t="s">
         <v>13</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CU2" t="s">
         <v>14</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CV2" t="s">
         <v>15</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CW2" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CX2" t="s">
         <v>17</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CY2" t="s">
         <v>18</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CZ2" t="s">
         <v>19</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="DA2" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="DB2" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="DC2" t="s">
         <v>22</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="DD2" t="s">
         <v>23</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="DE2" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="DF2" t="s">
         <v>25</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DG2" t="s">
         <v>26</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DH2" t="s">
         <v>27</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DI2" t="s">
         <v>28</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DJ2" t="s">
         <v>29</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DK2" t="s">
         <v>30</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DL2" t="s">
         <v>31</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DM2" t="s">
         <v>32</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DN2" t="s">
         <v>33</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DO2" t="s">
         <v>34</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DP2" t="s">
+        <v>35</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>37</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>38</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>39</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>40</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>41</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>42</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>43</v>
+      </c>
+      <c r="DY2" t="s">
         <v>2</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DZ2" t="s">
         <v>3</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="EA2" t="s">
         <v>4</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="EB2" t="s">
         <v>5</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="EC2" t="s">
         <v>6</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="ED2" t="s">
         <v>7</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="EE2" t="s">
         <v>8</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="EF2" t="s">
         <v>9</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="EG2" t="s">
         <v>10</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="EH2" t="s">
         <v>11</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="EI2" t="s">
         <v>12</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="EJ2" t="s">
         <v>13</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="EK2" t="s">
         <v>14</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="EL2" t="s">
         <v>15</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="EM2" t="s">
         <v>16</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="EN2" t="s">
         <v>17</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="EO2" t="s">
         <v>18</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EP2" t="s">
         <v>19</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EQ2" t="s">
         <v>20</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="ER2" t="s">
         <v>21</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="ES2" t="s">
         <v>22</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="ET2" t="s">
         <v>23</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EU2" t="s">
         <v>24</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EV2" t="s">
         <v>25</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EW2" t="s">
         <v>26</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EX2" t="s">
         <v>27</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EY2" t="s">
         <v>28</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EZ2" t="s">
         <v>29</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="FA2" t="s">
         <v>30</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="FB2" t="s">
         <v>31</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="FC2" t="s">
         <v>32</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="FD2" t="s">
         <v>33</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="FE2" t="s">
         <v>34</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="FF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>38</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>40</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>41</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>42</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>43</v>
+      </c>
+      <c r="FO2" t="s">
         <v>2</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="FP2" t="s">
         <v>3</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="FQ2" t="s">
         <v>4</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="FR2" t="s">
         <v>5</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="FS2" t="s">
         <v>6</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="FT2" t="s">
         <v>7</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FU2" t="s">
         <v>8</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FV2" t="s">
         <v>9</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FW2" t="s">
         <v>10</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FX2" t="s">
         <v>11</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FY2" t="s">
         <v>12</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FZ2" t="s">
         <v>13</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="GA2" t="s">
         <v>14</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="GB2" t="s">
         <v>15</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="GC2" t="s">
         <v>16</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="GD2" t="s">
         <v>17</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="GE2" t="s">
         <v>18</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="GF2" t="s">
         <v>19</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="GG2" t="s">
         <v>20</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="GH2" t="s">
         <v>21</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="GI2" t="s">
         <v>22</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="GJ2" t="s">
         <v>23</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="GK2" t="s">
         <v>24</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="GL2" t="s">
         <v>25</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="GM2" t="s">
         <v>26</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="GN2" t="s">
         <v>27</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="GO2" t="s">
         <v>28</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="GP2" t="s">
         <v>29</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GQ2" t="s">
         <v>30</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GR2" t="s">
         <v>31</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GS2" t="s">
         <v>32</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GT2" t="s">
         <v>33</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GU2" t="s">
         <v>34</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GV2" t="s">
+        <v>35</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>37</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>38</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="HE2" t="s">
         <v>2</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="HF2" t="s">
         <v>3</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="HG2" t="s">
         <v>4</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="HH2" t="s">
         <v>5</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="HI2" t="s">
         <v>6</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="HJ2" t="s">
         <v>7</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="HK2" t="s">
         <v>8</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="HL2" t="s">
         <v>9</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="HM2" t="s">
         <v>10</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="HN2" t="s">
         <v>11</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="HO2" t="s">
         <v>12</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="HP2" t="s">
         <v>13</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="HQ2" t="s">
         <v>14</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="HR2" t="s">
         <v>15</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="HS2" t="s">
         <v>16</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="HT2" t="s">
         <v>17</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="HU2" t="s">
         <v>18</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HV2" t="s">
         <v>19</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HW2" t="s">
         <v>20</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HX2" t="s">
         <v>21</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HY2" t="s">
         <v>22</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HZ2" t="s">
         <v>23</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="IA2" t="s">
         <v>24</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="IB2" t="s">
         <v>25</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="IC2" t="s">
         <v>26</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="ID2" t="s">
         <v>27</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="IE2" t="s">
         <v>28</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="IF2" t="s">
         <v>29</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="IG2" t="s">
         <v>30</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="IH2" t="s">
         <v>31</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="II2" t="s">
         <v>32</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="IJ2" t="s">
         <v>33</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="IK2" t="s">
         <v>34</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="IL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="IU2" t="s">
         <v>2</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="IV2" t="s">
         <v>3</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="IW2" t="s">
         <v>4</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="IX2" t="s">
         <v>5</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="IY2" t="s">
         <v>6</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="IZ2" t="s">
         <v>7</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="JA2" t="s">
         <v>8</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="JB2" t="s">
         <v>9</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="JC2" t="s">
         <v>10</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="JD2" t="s">
         <v>11</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="JE2" t="s">
         <v>12</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="JF2" t="s">
         <v>13</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="JG2" t="s">
         <v>14</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="JH2" t="s">
         <v>15</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="JI2" t="s">
         <v>16</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="JJ2" t="s">
         <v>17</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="JK2" t="s">
         <v>18</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="JL2" t="s">
         <v>19</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="JM2" t="s">
         <v>20</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="JN2" t="s">
         <v>21</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="JO2" t="s">
         <v>22</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="JP2" t="s">
         <v>23</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="JQ2" t="s">
         <v>24</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="JR2" t="s">
         <v>25</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="JS2" t="s">
         <v>26</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="JT2" t="s">
         <v>27</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="JU2" t="s">
         <v>28</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="JV2" t="s">
         <v>29</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="JW2" t="s">
         <v>30</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="JX2" t="s">
         <v>31</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="JY2" t="s">
         <v>32</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="JZ2" t="s">
         <v>33</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="KA2" t="s">
         <v>34</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="KB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>40</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>42</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="KK2" t="s">
         <v>2</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="KL2" t="s">
         <v>3</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="KM2" t="s">
         <v>4</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="KN2" t="s">
         <v>5</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="KO2" t="s">
         <v>6</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="KP2" t="s">
         <v>7</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="KQ2" t="s">
         <v>8</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="KR2" t="s">
         <v>9</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="KS2" t="s">
         <v>10</v>
       </c>
-      <c r="II2" t="s">
+      <c r="KT2" t="s">
         <v>11</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="KU2" t="s">
         <v>12</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="KV2" t="s">
         <v>13</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="KW2" t="s">
         <v>14</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="KX2" t="s">
         <v>15</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="KY2" t="s">
         <v>16</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="KZ2" t="s">
         <v>17</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="LA2" t="s">
         <v>18</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="LB2" t="s">
         <v>19</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="LC2" t="s">
         <v>20</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="LD2" t="s">
         <v>21</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="LE2" t="s">
         <v>22</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="LF2" t="s">
         <v>23</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="LG2" t="s">
         <v>24</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="LH2" t="s">
         <v>25</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="LI2" t="s">
         <v>26</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="LJ2" t="s">
         <v>27</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="LK2" t="s">
         <v>28</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="LL2" t="s">
         <v>29</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="LM2" t="s">
         <v>30</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="LN2" t="s">
         <v>31</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="LO2" t="s">
         <v>32</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="LP2" t="s">
         <v>33</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="LQ2" t="s">
         <v>34</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="LR2" t="s">
+        <v>35</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>37</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>38</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>39</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>40</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>41</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>42</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="MA2" t="s">
         <v>2</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="MB2" t="s">
         <v>3</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="MC2" t="s">
         <v>4</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="MD2" t="s">
         <v>5</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="ME2" t="s">
         <v>6</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="MF2" t="s">
         <v>7</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="MG2" t="s">
         <v>8</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="MH2" t="s">
         <v>9</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="MI2" t="s">
         <v>10</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="MJ2" t="s">
         <v>11</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="MK2" t="s">
         <v>12</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="ML2" t="s">
         <v>13</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="MM2" t="s">
         <v>14</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="MN2" t="s">
         <v>15</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="MO2" t="s">
         <v>16</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="MP2" t="s">
         <v>17</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="MQ2" t="s">
         <v>18</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="MR2" t="s">
         <v>19</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="MS2" t="s">
         <v>20</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="MT2" t="s">
         <v>21</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="MU2" t="s">
         <v>22</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="MV2" t="s">
         <v>23</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="MW2" t="s">
         <v>24</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="MX2" t="s">
         <v>25</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="MY2" t="s">
         <v>26</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="MZ2" t="s">
         <v>27</v>
       </c>
-      <c r="KG2" t="s">
+      <c r="NA2" t="s">
         <v>28</v>
       </c>
-      <c r="KH2" t="s">
+      <c r="NB2" t="s">
         <v>29</v>
       </c>
-      <c r="KI2" t="s">
+      <c r="NC2" t="s">
         <v>30</v>
       </c>
-      <c r="KJ2" t="s">
+      <c r="ND2" t="s">
         <v>31</v>
       </c>
-      <c r="KK2" t="s">
+      <c r="NE2" t="s">
         <v>32</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="NF2" t="s">
         <v>33</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="NG2" t="s">
         <v>34</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="NH2" t="s">
+        <v>35</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>39</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>41</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>42</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>43</v>
+      </c>
+      <c r="NQ2" t="s">
         <v>2</v>
       </c>
-      <c r="KO2" t="s">
+      <c r="NR2" t="s">
         <v>3</v>
       </c>
-      <c r="KP2" t="s">
+      <c r="NS2" t="s">
         <v>4</v>
       </c>
-      <c r="KQ2" t="s">
+      <c r="NT2" t="s">
         <v>5</v>
       </c>
-      <c r="KR2" t="s">
+      <c r="NU2" t="s">
         <v>6</v>
       </c>
-      <c r="KS2" t="s">
+      <c r="NV2" t="s">
         <v>7</v>
       </c>
-      <c r="KT2" t="s">
+      <c r="NW2" t="s">
         <v>8</v>
       </c>
-      <c r="KU2" t="s">
+      <c r="NX2" t="s">
         <v>9</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="NY2" t="s">
         <v>10</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="NZ2" t="s">
         <v>11</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="OA2" t="s">
         <v>12</v>
       </c>
-      <c r="KY2" t="s">
+      <c r="OB2" t="s">
         <v>13</v>
       </c>
-      <c r="KZ2" t="s">
+      <c r="OC2" t="s">
         <v>14</v>
       </c>
-      <c r="LA2" t="s">
+      <c r="OD2" t="s">
         <v>15</v>
       </c>
-      <c r="LB2" t="s">
+      <c r="OE2" t="s">
         <v>16</v>
       </c>
-      <c r="LC2" t="s">
+      <c r="OF2" t="s">
         <v>17</v>
       </c>
-      <c r="LD2" t="s">
+      <c r="OG2" t="s">
         <v>18</v>
       </c>
-      <c r="LE2" t="s">
+      <c r="OH2" t="s">
         <v>19</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="OI2" t="s">
         <v>20</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="OJ2" t="s">
         <v>21</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="OK2" t="s">
         <v>22</v>
       </c>
-      <c r="LI2" t="s">
+      <c r="OL2" t="s">
         <v>23</v>
       </c>
-      <c r="LJ2" t="s">
+      <c r="OM2" t="s">
         <v>24</v>
       </c>
-      <c r="LK2" t="s">
+      <c r="ON2" t="s">
         <v>25</v>
       </c>
-      <c r="LL2" t="s">
+      <c r="OO2" t="s">
         <v>26</v>
       </c>
-      <c r="LM2" t="s">
+      <c r="OP2" t="s">
         <v>27</v>
       </c>
-      <c r="LN2" t="s">
+      <c r="OQ2" t="s">
         <v>28</v>
       </c>
-      <c r="LO2" t="s">
+      <c r="OR2" t="s">
         <v>29</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="OS2" t="s">
         <v>30</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="OT2" t="s">
         <v>31</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="OU2" t="s">
         <v>32</v>
       </c>
-      <c r="LS2" t="s">
+      <c r="OV2" t="s">
         <v>33</v>
       </c>
-      <c r="LT2" t="s">
+      <c r="OW2" t="s">
         <v>34</v>
       </c>
-      <c r="LU2" t="s">
-        <v>45</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>46</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>47</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>48</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>49</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="MB2" t="s">
+      <c r="OX2" t="s">
+        <v>35</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>40</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>42</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>43</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>54</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>55</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>57</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>59</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="PN2" t="s">
         <v>6</v>
       </c>
-      <c r="MC2" t="s">
-        <v>52</v>
-      </c>
-      <c r="MD2" t="s">
+      <c r="PO2" t="s">
+        <v>61</v>
+      </c>
+      <c r="PP2" t="s">
         <v>8</v>
       </c>
-      <c r="ME2" t="s">
-        <v>53</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>55</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>58</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>59</v>
-      </c>
-      <c r="ML2" t="s">
+      <c r="PQ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>63</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>64</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>65</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>66</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>67</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="PX2" t="s">
         <v>11</v>
       </c>
-      <c r="MM2" t="s">
-        <v>60</v>
-      </c>
-      <c r="MN2" t="s">
+      <c r="PY2" t="s">
+        <v>69</v>
+      </c>
+      <c r="PZ2" t="s">
         <v>13</v>
       </c>
-      <c r="MO2" t="s">
-        <v>61</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>62</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>64</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>65</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>66</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>67</v>
-      </c>
-      <c r="MV2" t="s">
+      <c r="QA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="QH2" t="s">
         <v>16</v>
       </c>
-      <c r="MW2" t="s">
-        <v>68</v>
-      </c>
-      <c r="MX2" t="s">
+      <c r="QI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="QJ2" t="s">
         <v>18</v>
       </c>
-      <c r="MY2" t="s">
-        <v>69</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>70</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>71</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>73</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>74</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="NF2" t="s">
+      <c r="QK2" t="s">
+        <v>78</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>79</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>81</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>82</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>83</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="QR2" t="s">
         <v>21</v>
       </c>
-      <c r="NG2" t="s">
-        <v>76</v>
-      </c>
-      <c r="NH2" t="s">
+      <c r="QS2" t="s">
+        <v>85</v>
+      </c>
+      <c r="QT2" t="s">
         <v>23</v>
       </c>
-      <c r="NI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>79</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>80</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>82</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>83</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>84</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>85</v>
-      </c>
-      <c r="NR2" t="s">
+      <c r="QU2" t="s">
         <v>86</v>
       </c>
-      <c r="NS2" t="s">
+      <c r="QV2" t="s">
         <v>87</v>
       </c>
-      <c r="NT2" t="s">
+      <c r="QW2" t="s">
         <v>88</v>
       </c>
-      <c r="NU2" t="s">
+      <c r="QX2" t="s">
         <v>89</v>
       </c>
-      <c r="NV2" t="s">
+      <c r="QY2" t="s">
         <v>90</v>
       </c>
-      <c r="NW2" t="s">
+      <c r="QZ2" t="s">
         <v>91</v>
       </c>
-      <c r="NX2" t="s">
+      <c r="RA2" t="s">
         <v>92</v>
       </c>
-      <c r="NY2" t="s">
+      <c r="RB2" t="s">
         <v>93</v>
       </c>
-      <c r="NZ2" t="s">
+      <c r="RC2" t="s">
         <v>94</v>
       </c>
-      <c r="OA2" t="s">
+      <c r="RD2" t="s">
         <v>95</v>
       </c>
+      <c r="RE2" t="s">
+        <v>96</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>98</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>99</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>102</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>103</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>104</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>35</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>37</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>39</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>40</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>41</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>42</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:391">
+    <row r="3" spans="1:490">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>104.2441</v>
@@ -2298,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>0.6356589147286823</v>
+        <v>0.6318181818181816</v>
       </c>
       <c r="K3">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="M3">
         <v>0.5666666666666667</v>
@@ -2319,1078 +2742,1372 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3643410852713181</v>
+        <v>0.3681818181818181</v>
       </c>
       <c r="P3">
-        <v>-0.3458572319330415</v>
+        <v>-0.3364063634574893</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="R3">
-        <v>1.005735006103746</v>
+        <v>1.106365558219442</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06793043466521102</v>
+        <v>0.0705767587313284</v>
       </c>
       <c r="U3">
-        <v>-2.480476666666689</v>
+        <v>-0.6500100000000089</v>
       </c>
       <c r="V3">
+        <v>12</v>
+      </c>
+      <c r="W3">
+        <v>41.30580999999999</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1.108549696969697</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>13</v>
+      </c>
+      <c r="AC3">
+        <v>0.9644445369023297</v>
+      </c>
+      <c r="AD3">
+        <v>22</v>
+      </c>
+      <c r="AE3">
+        <v>22</v>
+      </c>
+      <c r="AF3">
+        <v>11.5</v>
+      </c>
+      <c r="AG3">
+        <v>6.133922073192648</v>
+      </c>
+      <c r="AH3">
+        <v>11.5</v>
+      </c>
+      <c r="AI3">
+        <v>6.133922073192648</v>
+      </c>
+      <c r="AJ3">
+        <v>0.07890102890771908</v>
+      </c>
+      <c r="AK3">
+        <v>2</v>
+      </c>
+      <c r="AL3">
+        <v>1.310520076928465</v>
+      </c>
+      <c r="AM3">
+        <v>1.002060949901807</v>
+      </c>
+      <c r="AN3">
+        <v>21</v>
+      </c>
+      <c r="AO3">
+        <v>2.714717668107011</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1.043225444122084</v>
+      </c>
+      <c r="AR3">
+        <v>22</v>
+      </c>
+      <c r="AS3">
+        <v>17</v>
+      </c>
+      <c r="AT3">
+        <v>104.6529</v>
+      </c>
+      <c r="AU3">
+        <v>104.6529</v>
+      </c>
+      <c r="AV3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0.7</v>
+      </c>
+      <c r="AY3">
+        <v>3</v>
+      </c>
+      <c r="AZ3">
+        <v>0.6374999999999997</v>
+      </c>
+      <c r="BA3">
+        <v>0.3</v>
+      </c>
+      <c r="BB3">
+        <v>3</v>
+      </c>
+      <c r="BC3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0.3624999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>-0.1961161351381853</v>
+      </c>
+      <c r="BG3">
+        <v>11</v>
+      </c>
+      <c r="BH3">
+        <v>0.9826789121548007</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0.1360460989193846</v>
+      </c>
+      <c r="BK3">
+        <v>-1.444053333333343</v>
+      </c>
+      <c r="BL3">
+        <v>11</v>
+      </c>
+      <c r="BM3">
+        <v>32.76778666666666</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>1.664172708333335</v>
+      </c>
+      <c r="BP3">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="BQ3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="BR3">
         <v>5</v>
       </c>
-      <c r="W3">
-        <v>37.54879999999999</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0.6545372868217052</v>
-      </c>
-      <c r="Z3">
+      <c r="BS3">
+        <v>1.429111722989412</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0.6144928808858201</v>
+      </c>
+      <c r="CA3">
+        <v>6</v>
+      </c>
+      <c r="CB3">
+        <v>1.341254411288935</v>
+      </c>
+      <c r="CC3">
+        <v>1.013991565451721</v>
+      </c>
+      <c r="CD3">
+        <v>14</v>
+      </c>
+      <c r="CE3">
+        <v>2.312344572879922</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1.077226269582513</v>
+      </c>
+      <c r="CH3">
+        <v>16</v>
+      </c>
+      <c r="CI3">
+        <v>19</v>
+      </c>
+      <c r="CJ3">
+        <v>104.6529</v>
+      </c>
+      <c r="CK3">
+        <v>104.6529</v>
+      </c>
+      <c r="CL3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="CM3">
+        <v>17</v>
+      </c>
+      <c r="CN3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="CO3">
+        <v>4</v>
+      </c>
+      <c r="CP3">
+        <v>0.6259259259259258</v>
+      </c>
+      <c r="CQ3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="CR3">
+        <v>4</v>
+      </c>
+      <c r="CS3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="CT3">
+        <v>17</v>
+      </c>
+      <c r="CU3">
+        <v>0.3740740740740741</v>
+      </c>
+      <c r="CV3">
+        <v>-0.2672612419124276</v>
+      </c>
+      <c r="CW3">
+        <v>14</v>
+      </c>
+      <c r="CX3">
+        <v>0.751284125649448</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0.1343393549771496</v>
+      </c>
+      <c r="DA3">
+        <v>-1.123733333333348</v>
+      </c>
+      <c r="DB3">
+        <v>14</v>
+      </c>
+      <c r="DC3">
+        <v>22.34955333333333</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>2.156438703703705</v>
+      </c>
+      <c r="DF3">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="DG3">
+        <v>1.25</v>
+      </c>
+      <c r="DH3">
+        <v>4</v>
+      </c>
+      <c r="DI3">
+        <v>1.265662717628662</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0.4152479533907029</v>
+      </c>
+      <c r="DQ3">
+        <v>3</v>
+      </c>
+      <c r="DR3">
+        <v>1.589575689983055</v>
+      </c>
+      <c r="DS3">
+        <v>1.005397839263132</v>
+      </c>
+      <c r="DT3">
+        <v>18</v>
+      </c>
+      <c r="DU3">
+        <v>2.406508084516338</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>1.098400735996597</v>
+      </c>
+      <c r="DX3">
+        <v>18</v>
+      </c>
+      <c r="DY3">
+        <v>40</v>
+      </c>
+      <c r="DZ3">
+        <v>103.8361</v>
+      </c>
+      <c r="EA3">
+        <v>103.8361</v>
+      </c>
+      <c r="EB3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="EE3">
+        <v>5</v>
+      </c>
+      <c r="EF3">
+        <v>0.6470085470085473</v>
+      </c>
+      <c r="EG3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="EH3">
+        <v>5</v>
+      </c>
+      <c r="EI3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="EJ3">
+        <v>0</v>
+      </c>
+      <c r="EK3">
+        <v>0.3529914529914532</v>
+      </c>
+      <c r="EL3">
+        <v>-0.3135037452231182</v>
+      </c>
+      <c r="EM3">
+        <v>14</v>
+      </c>
+      <c r="EN3">
+        <v>0.5610749689774914</v>
+      </c>
+      <c r="EO3">
+        <v>1</v>
+      </c>
+      <c r="EP3">
+        <v>0.07873920273194442</v>
+      </c>
+      <c r="EQ3">
+        <v>-1.120053333333331</v>
+      </c>
+      <c r="ER3">
+        <v>14</v>
+      </c>
+      <c r="ES3">
+        <v>16.60505333333333</v>
+      </c>
+      <c r="ET3">
+        <v>1</v>
+      </c>
+      <c r="EU3">
+        <v>1.190622307692307</v>
+      </c>
+      <c r="EV3">
+        <v>2</v>
+      </c>
+      <c r="EW3">
+        <v>0</v>
+      </c>
+      <c r="EX3">
+        <v>15</v>
+      </c>
+      <c r="EY3">
+        <v>1.042814427402662</v>
+      </c>
+      <c r="EZ3">
+        <v>39</v>
+      </c>
+      <c r="FA3">
+        <v>26</v>
+      </c>
+      <c r="FB3">
+        <v>26.5</v>
+      </c>
+      <c r="FC3">
+        <v>7.288689868556625</v>
+      </c>
+      <c r="FD3">
+        <v>13.5</v>
+      </c>
+      <c r="FE3">
+        <v>7.288689868556625</v>
+      </c>
+      <c r="FF3">
+        <v>0.5610749689774914</v>
+      </c>
+      <c r="FG3">
+        <v>2</v>
+      </c>
+      <c r="FH3">
+        <v>1.823163129119751</v>
+      </c>
+      <c r="FI3">
+        <v>1.002572180859846</v>
+      </c>
+      <c r="FJ3">
+        <v>32</v>
+      </c>
+      <c r="FK3">
+        <v>2.338647479090561</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>1.061070508579384</v>
+      </c>
+      <c r="FN3">
+        <v>39</v>
+      </c>
+      <c r="FO3">
+        <v>13</v>
+      </c>
+      <c r="FP3">
+        <v>104.6529</v>
+      </c>
+      <c r="FQ3">
+        <v>104.6529</v>
+      </c>
+      <c r="FR3">
+        <v>0.4</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="FU3">
+        <v>2</v>
+      </c>
+      <c r="FV3">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="FW3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="FX3">
+        <v>2</v>
+      </c>
+      <c r="FY3">
+        <v>0.6</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="GB3">
+        <v>-0.2672612419124286</v>
+      </c>
+      <c r="GC3">
+        <v>7</v>
+      </c>
+      <c r="GD3">
+        <v>1.138311383561731</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0.1134271457663191</v>
+      </c>
+      <c r="GG3">
+        <v>-0.5349333333333419</v>
+      </c>
+      <c r="GH3">
+        <v>7</v>
+      </c>
+      <c r="GI3">
+        <v>40.52188333333332</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>2.723638333333336</v>
+      </c>
+      <c r="GL3">
         <v>1.5</v>
       </c>
-      <c r="AA3">
-        <v>1.545454545454545</v>
-      </c>
-      <c r="AB3">
+      <c r="GM3">
+        <v>1.5</v>
+      </c>
+      <c r="GN3">
+        <v>2</v>
+      </c>
+      <c r="GO3">
+        <v>1.277212655284446</v>
+      </c>
+      <c r="GP3">
+        <v>0</v>
+      </c>
+      <c r="GQ3">
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <v>0.5000413106660544</v>
+      </c>
+      <c r="GW3">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="GX3">
+        <v>1.454133738247062</v>
+      </c>
+      <c r="GY3">
+        <v>1.002562298762631</v>
+      </c>
+      <c r="GZ3">
+        <v>6</v>
+      </c>
+      <c r="HA3">
+        <v>3.327875888243707</v>
+      </c>
+      <c r="HB3">
+        <v>0</v>
+      </c>
+      <c r="HC3">
+        <v>1.088618805572884</v>
+      </c>
+      <c r="HD3">
         <v>12</v>
       </c>
-      <c r="AC3">
-        <v>1.1204990554865</v>
-      </c>
-      <c r="AD3">
-        <v>43</v>
-      </c>
-      <c r="AE3">
+      <c r="HE3">
+        <v>11</v>
+      </c>
+      <c r="HF3">
+        <v>102.01</v>
+      </c>
+      <c r="HG3">
+        <v>102.01</v>
+      </c>
+      <c r="HH3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0.7</v>
+      </c>
+      <c r="HK3">
+        <v>1</v>
+      </c>
+      <c r="HL3">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="HM3">
+        <v>0.3</v>
+      </c>
+      <c r="HN3">
+        <v>1</v>
+      </c>
+      <c r="HO3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="HP3">
+        <v>0</v>
+      </c>
+      <c r="HQ3">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="HR3">
+        <v>3.855882435273916E-15</v>
+      </c>
+      <c r="HS3">
+        <v>8</v>
+      </c>
+      <c r="HT3">
+        <v>0.9976106753570971</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>0.2013393254583378</v>
+      </c>
+      <c r="HW3">
+        <v>2.842170943040401E-14</v>
+      </c>
+      <c r="HX3">
+        <v>8</v>
+      </c>
+      <c r="HY3">
+        <v>32.19909</v>
+      </c>
+      <c r="HZ3">
+        <v>0</v>
+      </c>
+      <c r="IA3">
+        <v>3.913182000000003</v>
+      </c>
+      <c r="IB3">
+        <v>0.5</v>
+      </c>
+      <c r="IC3">
+        <v>0</v>
+      </c>
+      <c r="ID3">
+        <v>3</v>
+      </c>
+      <c r="IE3">
+        <v>1.015088364112865</v>
+      </c>
+      <c r="IF3">
+        <v>10</v>
+      </c>
+      <c r="IG3">
+        <v>9</v>
+      </c>
+      <c r="IH3">
+        <v>6</v>
+      </c>
+      <c r="II3">
+        <v>2.380476142847617</v>
+      </c>
+      <c r="IJ3">
+        <v>5</v>
+      </c>
+      <c r="IK3">
+        <v>2.380476142847617</v>
+      </c>
+      <c r="IL3">
+        <v>0.2178875717630655</v>
+      </c>
+      <c r="IM3">
+        <v>2</v>
+      </c>
+      <c r="IN3">
+        <v>1.66437546379364</v>
+      </c>
+      <c r="IO3">
+        <v>1.008093605162514</v>
+      </c>
+      <c r="IP3">
+        <v>10</v>
+      </c>
+      <c r="IQ3">
+        <v>3.411212653308817</v>
+      </c>
+      <c r="IR3">
+        <v>0</v>
+      </c>
+      <c r="IS3">
+        <v>1.169415464041436</v>
+      </c>
+      <c r="IT3">
+        <v>10</v>
+      </c>
+      <c r="IU3">
+        <v>6</v>
+      </c>
+      <c r="IV3">
+        <v>104.6529</v>
+      </c>
+      <c r="IW3">
+        <v>104.6529</v>
+      </c>
+      <c r="IX3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="IY3">
+        <v>1</v>
+      </c>
+      <c r="IZ3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="JA3">
+        <v>2</v>
+      </c>
+      <c r="JB3">
+        <v>0.5933333333333333</v>
+      </c>
+      <c r="JC3">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="JD3">
+        <v>2</v>
+      </c>
+      <c r="JE3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="JF3">
+        <v>1</v>
+      </c>
+      <c r="JG3">
+        <v>0.4066666666666667</v>
+      </c>
+      <c r="JH3">
+        <v>0.267261241912426</v>
+      </c>
+      <c r="JI3">
+        <v>5</v>
+      </c>
+      <c r="JJ3">
+        <v>0.6110898627254726</v>
+      </c>
+      <c r="JK3">
+        <v>1</v>
+      </c>
+      <c r="JL3">
+        <v>0.4624886285114255</v>
+      </c>
+      <c r="JM3">
+        <v>1.872693333333345</v>
+      </c>
+      <c r="JN3">
+        <v>5</v>
+      </c>
+      <c r="JO3">
+        <v>17.01993666666668</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>9.588865333333334</v>
+      </c>
+      <c r="JR3">
+        <v>2</v>
+      </c>
+      <c r="JS3">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="JT3">
+        <v>4</v>
+      </c>
+      <c r="JU3">
+        <v>1.610930735930736</v>
+      </c>
+      <c r="JV3">
+        <v>0</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0.6110898627254726</v>
+      </c>
+      <c r="KC3">
+        <v>2</v>
+      </c>
+      <c r="KD3">
+        <v>1.845451116973965</v>
+      </c>
+      <c r="KE3">
+        <v>1.018220369408351</v>
+      </c>
+      <c r="KF3">
+        <v>5</v>
+      </c>
+      <c r="KG3">
+        <v>2.636847944134472</v>
+      </c>
+      <c r="KH3">
+        <v>0</v>
+      </c>
+      <c r="KI3">
+        <v>1.330963440462721</v>
+      </c>
+      <c r="KJ3">
+        <v>5</v>
+      </c>
+      <c r="KK3">
+        <v>58</v>
+      </c>
+      <c r="KL3">
+        <v>100.2001</v>
+      </c>
+      <c r="KM3">
+        <v>100.2001</v>
+      </c>
+      <c r="KN3">
+        <v>0.5</v>
+      </c>
+      <c r="KO3">
+        <v>2</v>
+      </c>
+      <c r="KP3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="KQ3">
+        <v>19</v>
+      </c>
+      <c r="KR3">
+        <v>0.6286549707602345</v>
+      </c>
+      <c r="KS3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="KT3">
+        <v>19</v>
+      </c>
+      <c r="KU3">
+        <v>0.5</v>
+      </c>
+      <c r="KV3">
+        <v>2</v>
+      </c>
+      <c r="KW3">
+        <v>0.371345029239766</v>
+      </c>
+      <c r="KX3">
+        <v>-0.4008918628686385</v>
+      </c>
+      <c r="KY3">
+        <v>26</v>
+      </c>
+      <c r="KZ3">
+        <v>0.7788900110934168</v>
+      </c>
+      <c r="LA3">
+        <v>0</v>
+      </c>
+      <c r="LB3">
+        <v>0.05983579810991604</v>
+      </c>
+      <c r="LC3">
+        <v>-1.940636666666634</v>
+      </c>
+      <c r="LD3">
+        <v>2</v>
+      </c>
+      <c r="LE3">
+        <v>28.37812333333333</v>
+      </c>
+      <c r="LF3">
+        <v>0</v>
+      </c>
+      <c r="LG3">
+        <v>0.5271557894736838</v>
+      </c>
+      <c r="LH3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="LI3">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="LJ3">
+        <v>33</v>
+      </c>
+      <c r="LK3">
+        <v>1.057614302616254</v>
+      </c>
+      <c r="LL3">
+        <v>57</v>
+      </c>
+      <c r="LM3">
+        <v>56</v>
+      </c>
+      <c r="LN3">
+        <v>29.5</v>
+      </c>
+      <c r="LO3">
+        <v>15.94913790773659</v>
+      </c>
+      <c r="LP3">
+        <v>28.5</v>
+      </c>
+      <c r="LQ3">
+        <v>15.94913790773659</v>
+      </c>
+      <c r="LR3">
+        <v>0.4311197687333943</v>
+      </c>
+      <c r="LS3">
+        <v>3</v>
+      </c>
+      <c r="LT3">
+        <v>1.49179740854958</v>
+      </c>
+      <c r="LU3">
+        <v>1.001971942813658</v>
+      </c>
+      <c r="LV3">
+        <v>54</v>
+      </c>
+      <c r="LW3">
+        <v>2.505210366009111</v>
+      </c>
+      <c r="LX3">
+        <v>0</v>
+      </c>
+      <c r="LY3">
+        <v>1.058148825775022</v>
+      </c>
+      <c r="LZ3">
+        <v>57</v>
+      </c>
+      <c r="MA3">
+        <v>42</v>
+      </c>
+      <c r="MB3">
+        <v>94.28410000000002</v>
+      </c>
+      <c r="MC3">
+        <v>94.2841</v>
+      </c>
+      <c r="MD3">
+        <v>0.5</v>
+      </c>
+      <c r="ME3">
+        <v>0</v>
+      </c>
+      <c r="MF3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="MG3">
         <v>38</v>
       </c>
-      <c r="AF3">
-        <v>24.5</v>
-      </c>
-      <c r="AG3">
+      <c r="MH3">
+        <v>0.643089430894309</v>
+      </c>
+      <c r="MI3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="MJ3">
+        <v>38</v>
+      </c>
+      <c r="MK3">
+        <v>0.5</v>
+      </c>
+      <c r="ML3">
+        <v>0</v>
+      </c>
+      <c r="MM3">
+        <v>0.3569105691056914</v>
+      </c>
+      <c r="MN3">
+        <v>-0.4364357804719889</v>
+      </c>
+      <c r="MO3">
+        <v>27</v>
+      </c>
+      <c r="MP3">
+        <v>0.9125176080546578</v>
+      </c>
+      <c r="MQ3">
+        <v>0</v>
+      </c>
+      <c r="MR3">
+        <v>0.05986691419154304</v>
+      </c>
+      <c r="MS3">
+        <v>-2.487613333333329</v>
+      </c>
+      <c r="MT3">
+        <v>4</v>
+      </c>
+      <c r="MU3">
+        <v>30.15691333333335</v>
+      </c>
+      <c r="MV3">
+        <v>0</v>
+      </c>
+      <c r="MW3">
+        <v>0.4493621138211378</v>
+      </c>
+      <c r="MX3">
+        <v>0.5</v>
+      </c>
+      <c r="MY3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="MZ3">
+        <v>25</v>
+      </c>
+      <c r="NA3">
+        <v>1.068777063258049</v>
+      </c>
+      <c r="NB3">
+        <v>41</v>
+      </c>
+      <c r="NC3">
+        <v>38</v>
+      </c>
+      <c r="ND3">
+        <v>22.5</v>
+      </c>
+      <c r="NE3">
         <v>10.75290658380328</v>
       </c>
-      <c r="AH3">
+      <c r="NF3">
         <v>19.5</v>
       </c>
-      <c r="AI3">
+      <c r="NG3">
         <v>10.75290658380328</v>
       </c>
-      <c r="AJ3">
-        <v>25</v>
-      </c>
-      <c r="AK3">
-        <v>104.6529</v>
-      </c>
-      <c r="AL3">
-        <v>104.6529</v>
-      </c>
-      <c r="AM3">
+      <c r="NH3">
+        <v>0.2883641757606832</v>
+      </c>
+      <c r="NI3">
+        <v>2</v>
+      </c>
+      <c r="NJ3">
+        <v>1.379548517194511</v>
+      </c>
+      <c r="NK3">
+        <v>1.001562864440126</v>
+      </c>
+      <c r="NL3">
+        <v>40</v>
+      </c>
+      <c r="NM3">
+        <v>2.289830458780474</v>
+      </c>
+      <c r="NN3">
+        <v>0</v>
+      </c>
+      <c r="NO3">
+        <v>1.049065920279357</v>
+      </c>
+      <c r="NP3">
+        <v>41</v>
+      </c>
+      <c r="NQ3">
+        <v>23</v>
+      </c>
+      <c r="NR3">
+        <v>104.4484</v>
+      </c>
+      <c r="NS3">
+        <v>104.4484</v>
+      </c>
+      <c r="NT3">
         <v>0.5</v>
       </c>
-      <c r="AN3">
-        <v>10</v>
-      </c>
-      <c r="AO3">
+      <c r="NU3">
+        <v>0</v>
+      </c>
+      <c r="NV3">
+        <v>0.7</v>
+      </c>
+      <c r="NW3">
+        <v>7</v>
+      </c>
+      <c r="NX3">
+        <v>0.6287878787878786</v>
+      </c>
+      <c r="NY3">
+        <v>0.3</v>
+      </c>
+      <c r="NZ3">
+        <v>7</v>
+      </c>
+      <c r="OA3">
+        <v>0.5</v>
+      </c>
+      <c r="OB3">
+        <v>0</v>
+      </c>
+      <c r="OC3">
+        <v>0.3712121212121212</v>
+      </c>
+      <c r="OD3">
+        <v>-0.2909571869813384</v>
+      </c>
+      <c r="OE3">
+        <v>15</v>
+      </c>
+      <c r="OF3">
+        <v>0.9074426225254594</v>
+      </c>
+      <c r="OG3">
+        <v>0</v>
+      </c>
+      <c r="OH3">
+        <v>0.1392302110648851</v>
+      </c>
+      <c r="OI3">
+        <v>-0.6363733333333528</v>
+      </c>
+      <c r="OJ3">
+        <v>4</v>
+      </c>
+      <c r="OK3">
+        <v>31.99137666666668</v>
+      </c>
+      <c r="OL3">
+        <v>0</v>
+      </c>
+      <c r="OM3">
+        <v>1.480262424242426</v>
+      </c>
+      <c r="ON3">
+        <v>1</v>
+      </c>
+      <c r="OO3">
+        <v>1.5</v>
+      </c>
+      <c r="OP3">
+        <v>12</v>
+      </c>
+      <c r="OQ3">
+        <v>1.157293133871408</v>
+      </c>
+      <c r="OR3">
+        <v>22</v>
+      </c>
+      <c r="OS3">
+        <v>13</v>
+      </c>
+      <c r="OT3">
+        <v>16</v>
+      </c>
+      <c r="OU3">
+        <v>3.535533905932737</v>
+      </c>
+      <c r="OV3">
+        <v>7</v>
+      </c>
+      <c r="OW3">
+        <v>3.535533905932737</v>
+      </c>
+      <c r="OX3">
+        <v>0.3591363766832663</v>
+      </c>
+      <c r="OY3">
+        <v>1</v>
+      </c>
+      <c r="OZ3">
+        <v>1.455885863566106</v>
+      </c>
+      <c r="PA3">
+        <v>1.001563402571559</v>
+      </c>
+      <c r="PB3">
+        <v>22</v>
+      </c>
+      <c r="PC3">
+        <v>2.623455018331088</v>
+      </c>
+      <c r="PD3">
+        <v>0</v>
+      </c>
+      <c r="PE3">
+        <v>1.113751124354341</v>
+      </c>
+      <c r="PF3">
+        <v>22</v>
+      </c>
+      <c r="PG3">
+        <v>0.4</v>
+      </c>
+      <c r="PH3">
+        <v>4</v>
+      </c>
+      <c r="PI3">
+        <v>6</v>
+      </c>
+      <c r="PJ3">
+        <v>19</v>
+      </c>
+      <c r="PK3">
+        <v>13.75</v>
+      </c>
+      <c r="PL3">
+        <v>4.968651728587948</v>
+      </c>
+      <c r="PM3">
+        <v>0.4</v>
+      </c>
+      <c r="PN3">
+        <v>0</v>
+      </c>
+      <c r="PO3">
         <v>0.7666666666666667</v>
       </c>
-      <c r="AP3">
-        <v>19</v>
-      </c>
-      <c r="AQ3">
-        <v>0.6374999999999997</v>
-      </c>
-      <c r="AR3">
+      <c r="PP3">
+        <v>4</v>
+      </c>
+      <c r="PQ3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="PR3">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="PS3">
+        <v>0.6273842592592591</v>
+      </c>
+      <c r="PT3">
+        <v>0.06236095644623234</v>
+      </c>
+      <c r="PU3">
+        <v>0.04930066485916349</v>
+      </c>
+      <c r="PV3">
+        <v>0.02184462912255682</v>
+      </c>
+      <c r="PW3">
         <v>0.2333333333333333</v>
       </c>
-      <c r="AS3">
-        <v>19</v>
-      </c>
-      <c r="AT3">
-        <v>0.5</v>
-      </c>
-      <c r="AU3">
-        <v>10</v>
-      </c>
-      <c r="AV3">
-        <v>0.3625</v>
-      </c>
-      <c r="AW3">
-        <v>-0.1336306209562118</v>
-      </c>
-      <c r="AX3">
-        <v>19</v>
-      </c>
-      <c r="AY3">
-        <v>0.5752113833679781</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0.1340904436556507</v>
-      </c>
-      <c r="BB3">
-        <v>-1.264879999999991</v>
-      </c>
-      <c r="BC3">
-        <v>3</v>
-      </c>
-      <c r="BD3">
-        <v>19.18063333333334</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>1.675579861111111</v>
-      </c>
-      <c r="BG3">
-        <v>1</v>
-      </c>
-      <c r="BH3">
-        <v>1.230769230769231</v>
-      </c>
-      <c r="BI3">
-        <v>13</v>
-      </c>
-      <c r="BJ3">
-        <v>1.191534200117365</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>13</v>
-      </c>
-      <c r="BR3">
-        <v>104.6529</v>
-      </c>
-      <c r="BS3">
-        <v>104.6529</v>
-      </c>
-      <c r="BT3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="BW3">
+      <c r="PX3">
+        <v>4</v>
+      </c>
+      <c r="PY3">
+        <v>0.6</v>
+      </c>
+      <c r="PZ3">
+        <v>0</v>
+      </c>
+      <c r="QA3">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="QB3">
+        <v>0.5333333333333334</v>
+      </c>
+      <c r="QC3">
+        <v>0.3726157407407407</v>
+      </c>
+      <c r="QD3">
+        <v>0.04930066485916346</v>
+      </c>
+      <c r="QE3">
+        <v>0.06236095644623234</v>
+      </c>
+      <c r="QF3">
+        <v>0.02184462912255688</v>
+      </c>
+      <c r="QG3">
+        <v>-0.2672612419124286</v>
+      </c>
+      <c r="QH3">
+        <v>7</v>
+      </c>
+      <c r="QI3">
+        <v>1.138311383561731</v>
+      </c>
+      <c r="QJ3">
+        <v>0</v>
+      </c>
+      <c r="QK3">
+        <v>-0.1158443442626539</v>
+      </c>
+      <c r="QL3">
+        <v>0.870841071022863</v>
+      </c>
+      <c r="QM3">
+        <v>0.2115753070435697</v>
+      </c>
+      <c r="QN3">
+        <v>0.2230849638347916</v>
+      </c>
+      <c r="QO3">
+        <v>0.2036004814567418</v>
+      </c>
+      <c r="QP3">
+        <v>0.1451383908754069</v>
+      </c>
+      <c r="QQ3">
+        <v>-1.444053333333343</v>
+      </c>
+      <c r="QR3">
         <v>11</v>
       </c>
-      <c r="BX3">
-        <v>0.6249999999999999</v>
-      </c>
-      <c r="BY3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="BZ3">
+      <c r="QS3">
+        <v>40.52188333333332</v>
+      </c>
+      <c r="QT3">
+        <v>0</v>
+      </c>
+      <c r="QU3">
+        <v>-0.3075066666666721</v>
+      </c>
+      <c r="QV3">
+        <v>28.16479</v>
+      </c>
+      <c r="QW3">
+        <v>4.033278769675928</v>
+      </c>
+      <c r="QX3">
+        <v>1.5</v>
+      </c>
+      <c r="QY3">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="QZ3">
+        <v>2</v>
+      </c>
+      <c r="RA3">
+        <v>1.25</v>
+      </c>
+      <c r="RB3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="RC3">
+        <v>1.49702380952381</v>
+      </c>
+      <c r="RD3">
+        <v>1.265662717628662</v>
+      </c>
+      <c r="RE3">
+        <v>1.610930735930736</v>
+      </c>
+      <c r="RF3">
+        <v>1.395729457958314</v>
+      </c>
+      <c r="RG3">
         <v>11</v>
       </c>
-      <c r="CA3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0.375</v>
-      </c>
-      <c r="CD3">
-        <v>-0.1562213581252533</v>
-      </c>
-      <c r="CE3">
-        <v>7</v>
-      </c>
-      <c r="CF3">
-        <v>0.6999380677658744</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0.1928812594896053</v>
-      </c>
-      <c r="CI3">
-        <v>-1.652283333333315</v>
-      </c>
-      <c r="CJ3">
-        <v>7</v>
-      </c>
-      <c r="CK3">
-        <v>20.82208666666666</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>3.361946944444446</v>
-      </c>
-      <c r="CN3">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="CO3">
-        <v>2</v>
-      </c>
-      <c r="CP3">
-        <v>4</v>
-      </c>
-      <c r="CQ3">
-        <v>1.38629966509762</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>37</v>
-      </c>
-      <c r="CY3">
-        <v>103.8361</v>
-      </c>
-      <c r="CZ3">
-        <v>103.8361</v>
-      </c>
-      <c r="DA3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="DD3">
-        <v>6</v>
-      </c>
-      <c r="DE3">
-        <v>0.6407407407407407</v>
-      </c>
-      <c r="DF3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="DG3">
-        <v>6</v>
-      </c>
-      <c r="DH3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="DI3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>0.3592592592592593</v>
-      </c>
-      <c r="DK3">
-        <v>-0.3713906763540998</v>
-      </c>
-      <c r="DL3">
-        <v>31</v>
-      </c>
-      <c r="DM3">
-        <v>0.7320099661368694</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0.08841722398583167</v>
-      </c>
-      <c r="DP3">
-        <v>-1.444423333333347</v>
-      </c>
-      <c r="DQ3">
-        <v>5</v>
-      </c>
-      <c r="DR3">
-        <v>23.74284666666667</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0.9817757407407404</v>
-      </c>
-      <c r="DU3">
-        <v>0</v>
-      </c>
-      <c r="DV3">
-        <v>1.636363636363636</v>
-      </c>
-      <c r="DW3">
-        <v>18</v>
-      </c>
-      <c r="DX3">
-        <v>1.079303058759894</v>
-      </c>
-      <c r="DY3">
-        <v>36</v>
-      </c>
-      <c r="DZ3">
-        <v>36</v>
-      </c>
-      <c r="EA3">
-        <v>18.5</v>
-      </c>
-      <c r="EB3">
-        <v>10.17554257357644</v>
-      </c>
-      <c r="EC3">
-        <v>18.5</v>
-      </c>
-      <c r="ED3">
-        <v>10.17554257357644</v>
-      </c>
-      <c r="EE3">
-        <v>48</v>
-      </c>
-      <c r="EF3">
-        <v>104.6529</v>
-      </c>
-      <c r="EG3">
-        <v>104.6529</v>
-      </c>
-      <c r="EH3">
-        <v>0.4</v>
-      </c>
-      <c r="EI3">
-        <v>0</v>
-      </c>
-      <c r="EJ3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="EK3">
-        <v>45</v>
-      </c>
-      <c r="EL3">
-        <v>0.6382978723404257</v>
-      </c>
-      <c r="EM3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="EN3">
-        <v>45</v>
-      </c>
-      <c r="EO3">
-        <v>0.6</v>
-      </c>
-      <c r="EP3">
-        <v>0</v>
-      </c>
-      <c r="EQ3">
-        <v>0.3617021276595745</v>
-      </c>
-      <c r="ER3">
-        <v>-0.5345224838248431</v>
-      </c>
-      <c r="ES3">
-        <v>33</v>
-      </c>
-      <c r="ET3">
-        <v>1.185239731832779</v>
-      </c>
-      <c r="EU3">
-        <v>0</v>
-      </c>
-      <c r="EV3">
-        <v>0.04722495106187181</v>
-      </c>
-      <c r="EW3">
-        <v>-4.383626666666672</v>
-      </c>
-      <c r="EX3">
-        <v>7</v>
-      </c>
-      <c r="EY3">
-        <v>42.19244999999999</v>
-      </c>
-      <c r="EZ3">
-        <v>0</v>
-      </c>
-      <c r="FA3">
-        <v>0.6598530496453906</v>
-      </c>
-      <c r="FB3">
-        <v>0.875</v>
-      </c>
-      <c r="FC3">
-        <v>1.416666666666667</v>
-      </c>
-      <c r="FD3">
-        <v>6</v>
-      </c>
-      <c r="FE3">
-        <v>1.071746455387283</v>
-      </c>
-      <c r="FF3">
-        <v>0</v>
-      </c>
-      <c r="FG3">
-        <v>0</v>
-      </c>
-      <c r="FL3">
-        <v>119</v>
-      </c>
-      <c r="FM3">
-        <v>104.6529</v>
-      </c>
-      <c r="FN3">
-        <v>104.6529</v>
-      </c>
-      <c r="FO3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="FP3">
-        <v>0</v>
-      </c>
-      <c r="FQ3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="FR3">
-        <v>57</v>
-      </c>
-      <c r="FS3">
-        <v>0.6344632768361587</v>
-      </c>
-      <c r="FT3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="FU3">
-        <v>57</v>
-      </c>
-      <c r="FV3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="FW3">
-        <v>0</v>
-      </c>
-      <c r="FX3">
-        <v>0.3655367231638417</v>
-      </c>
-      <c r="FY3">
-        <v>-0.4902903378454573</v>
-      </c>
-      <c r="FZ3">
-        <v>97</v>
-      </c>
-      <c r="GA3">
-        <v>0.9818028499368208</v>
-      </c>
-      <c r="GB3">
-        <v>0</v>
-      </c>
-      <c r="GC3">
-        <v>0.02973272527866666</v>
-      </c>
-      <c r="GD3">
-        <v>-1.435676666666708</v>
-      </c>
-      <c r="GE3">
-        <v>7</v>
-      </c>
-      <c r="GF3">
-        <v>31.68887333333334</v>
-      </c>
-      <c r="GG3">
-        <v>0</v>
-      </c>
-      <c r="GH3">
-        <v>0.3583469209039549</v>
-      </c>
-      <c r="GI3">
-        <v>2.25</v>
-      </c>
-      <c r="GJ3">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="GK3">
-        <v>30</v>
-      </c>
-      <c r="GL3">
-        <v>1.064762139431568</v>
-      </c>
-      <c r="GM3">
-        <v>0</v>
-      </c>
-      <c r="GN3">
-        <v>0</v>
-      </c>
-      <c r="GS3">
-        <v>33</v>
-      </c>
-      <c r="GT3">
-        <v>104.6529</v>
-      </c>
-      <c r="GU3">
-        <v>104.6529</v>
-      </c>
-      <c r="GV3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="GW3">
-        <v>0</v>
-      </c>
-      <c r="GX3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="GY3">
-        <v>21</v>
-      </c>
-      <c r="GZ3">
-        <v>0.6395833333333334</v>
-      </c>
-      <c r="HA3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="HB3">
-        <v>21</v>
-      </c>
-      <c r="HC3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="HD3">
-        <v>0</v>
-      </c>
-      <c r="HE3">
-        <v>0.3604166666666667</v>
-      </c>
-      <c r="HF3">
-        <v>-0.2075143391598218</v>
-      </c>
-      <c r="HG3">
-        <v>8</v>
-      </c>
-      <c r="HH3">
-        <v>1.04111140764049</v>
-      </c>
-      <c r="HI3">
-        <v>0</v>
-      </c>
-      <c r="HJ3">
-        <v>0.07654615219832996</v>
-      </c>
-      <c r="HK3">
-        <v>-1.146436666666645</v>
-      </c>
-      <c r="HL3">
-        <v>4</v>
-      </c>
-      <c r="HM3">
-        <v>34.62850333333334</v>
-      </c>
-      <c r="HN3">
-        <v>0</v>
-      </c>
-      <c r="HO3">
-        <v>0.9479925</v>
-      </c>
-      <c r="HP3">
-        <v>1.166666666666667</v>
-      </c>
-      <c r="HQ3">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="HR3">
-        <v>7</v>
-      </c>
-      <c r="HS3">
-        <v>1.118602586505637</v>
-      </c>
-      <c r="HT3">
-        <v>0</v>
-      </c>
-      <c r="HU3">
-        <v>0</v>
-      </c>
-      <c r="HZ3">
-        <v>92</v>
-      </c>
-      <c r="IA3">
-        <v>100.2001</v>
-      </c>
-      <c r="IB3">
-        <v>100.2001</v>
-      </c>
-      <c r="IC3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="ID3">
-        <v>0</v>
-      </c>
-      <c r="IE3">
-        <v>0.8</v>
-      </c>
-      <c r="IF3">
-        <v>18</v>
-      </c>
-      <c r="IG3">
-        <v>0.643589743589744</v>
-      </c>
-      <c r="IH3">
-        <v>0.2</v>
-      </c>
-      <c r="II3">
-        <v>18</v>
-      </c>
-      <c r="IJ3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="IK3">
-        <v>0</v>
-      </c>
-      <c r="IL3">
-        <v>0.3564102564102563</v>
-      </c>
-      <c r="IM3">
-        <v>-0.3402069087198826</v>
-      </c>
-      <c r="IN3">
-        <v>67</v>
-      </c>
-      <c r="IO3">
-        <v>0.9588406893940419</v>
-      </c>
-      <c r="IP3">
-        <v>0</v>
-      </c>
-      <c r="IQ3">
-        <v>0.02032460999664635</v>
-      </c>
-      <c r="IR3">
-        <v>-0.742133333333328</v>
-      </c>
-      <c r="IS3">
-        <v>67</v>
-      </c>
-      <c r="IT3">
-        <v>34.93445666666666</v>
-      </c>
-      <c r="IU3">
-        <v>0</v>
-      </c>
-      <c r="IV3">
-        <v>0.2581488644688644</v>
-      </c>
-      <c r="IW3">
-        <v>0.5</v>
-      </c>
-      <c r="IX3">
-        <v>1.25</v>
-      </c>
-      <c r="IY3">
-        <v>57</v>
-      </c>
-      <c r="IZ3">
-        <v>1.060492271998279</v>
-      </c>
-      <c r="JA3">
-        <v>91</v>
-      </c>
-      <c r="JB3">
-        <v>1</v>
-      </c>
-      <c r="JC3">
-        <v>91</v>
-      </c>
-      <c r="JD3">
-        <v>0</v>
-      </c>
-      <c r="JE3">
-        <v>1</v>
-      </c>
-      <c r="JF3">
-        <v>0</v>
-      </c>
-      <c r="JG3">
-        <v>49</v>
-      </c>
-      <c r="JH3">
-        <v>94.67290000000001</v>
-      </c>
-      <c r="JI3">
-        <v>94.67290000000001</v>
-      </c>
-      <c r="JJ3">
-        <v>0.5</v>
-      </c>
-      <c r="JK3">
-        <v>0</v>
-      </c>
-      <c r="JL3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="JM3">
-        <v>14</v>
-      </c>
-      <c r="JN3">
-        <v>0.6381944444444448</v>
-      </c>
-      <c r="JO3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="JP3">
-        <v>14</v>
-      </c>
-      <c r="JQ3">
-        <v>0.5</v>
-      </c>
-      <c r="JR3">
-        <v>0</v>
-      </c>
-      <c r="JS3">
-        <v>0.3618055555555555</v>
-      </c>
-      <c r="JT3">
-        <v>-0.5570860145311359</v>
-      </c>
-      <c r="JU3">
-        <v>43</v>
-      </c>
-      <c r="JV3">
-        <v>0.7436886062065233</v>
-      </c>
-      <c r="JW3">
-        <v>0</v>
-      </c>
-      <c r="JX3">
-        <v>0.03382676042714333</v>
-      </c>
-      <c r="JY3">
-        <v>-0.4802500000000123</v>
-      </c>
-      <c r="JZ3">
-        <v>10</v>
-      </c>
-      <c r="KA3">
-        <v>24.57744666666667</v>
-      </c>
-      <c r="KB3">
-        <v>0</v>
-      </c>
-      <c r="KC3">
-        <v>0.5081690277777778</v>
-      </c>
-      <c r="KD3">
-        <v>4</v>
-      </c>
-      <c r="KE3">
-        <v>0</v>
-      </c>
-      <c r="KF3">
-        <v>7</v>
-      </c>
-      <c r="KG3">
-        <v>1.0421547972218</v>
-      </c>
-      <c r="KH3">
-        <v>48</v>
-      </c>
-      <c r="KI3">
-        <v>43</v>
-      </c>
-      <c r="KJ3">
-        <v>27</v>
-      </c>
-      <c r="KK3">
-        <v>12.19631091765047</v>
-      </c>
-      <c r="KL3">
-        <v>22</v>
-      </c>
-      <c r="KM3">
-        <v>12.19631091765047</v>
-      </c>
-      <c r="KN3">
-        <v>25</v>
-      </c>
-      <c r="KO3">
-        <v>104.6529</v>
-      </c>
-      <c r="KP3">
-        <v>104.6529</v>
-      </c>
-      <c r="KQ3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="KR3">
-        <v>5</v>
-      </c>
-      <c r="KS3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="KT3">
-        <v>14</v>
-      </c>
-      <c r="KU3">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="KV3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="KW3">
-        <v>14</v>
-      </c>
-      <c r="KX3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="KY3">
-        <v>5</v>
-      </c>
-      <c r="KZ3">
-        <v>0.3499999999999999</v>
-      </c>
-      <c r="LA3">
-        <v>-0.3521370402398374</v>
-      </c>
-      <c r="LB3">
-        <v>13</v>
-      </c>
-      <c r="LC3">
-        <v>0.919118505867191</v>
-      </c>
-      <c r="LD3">
-        <v>0</v>
-      </c>
-      <c r="LE3">
-        <v>0.07860817101184621</v>
-      </c>
-      <c r="LF3">
-        <v>-2.917393333333351</v>
-      </c>
-      <c r="LG3">
-        <v>13</v>
-      </c>
-      <c r="LH3">
-        <v>32.40300333333334</v>
-      </c>
-      <c r="LI3">
-        <v>0</v>
-      </c>
-      <c r="LJ3">
-        <v>1.348276944444445</v>
-      </c>
-      <c r="LK3">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="LL3">
-        <v>1.357142857142857</v>
-      </c>
-      <c r="LM3">
-        <v>7</v>
-      </c>
-      <c r="LN3">
-        <v>1.200983988280556</v>
-      </c>
-      <c r="LO3">
-        <v>0</v>
-      </c>
-      <c r="LP3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>0.6</v>
-      </c>
-      <c r="LV3">
-        <v>6</v>
-      </c>
-      <c r="LW3">
-        <v>13</v>
-      </c>
-      <c r="LX3">
-        <v>119</v>
-      </c>
-      <c r="LY3">
-        <v>43.83333333333334</v>
-      </c>
-      <c r="LZ3">
-        <v>35.22506998652459</v>
-      </c>
-      <c r="MA3">
-        <v>0.4</v>
-      </c>
-      <c r="MB3">
-        <v>0</v>
-      </c>
-      <c r="MC3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="MD3">
-        <v>19</v>
-      </c>
-      <c r="ME3">
-        <v>0.4722222222222223</v>
-      </c>
-      <c r="MF3">
-        <v>0.7611111111111111</v>
-      </c>
-      <c r="MG3">
-        <v>0.6374740804183195</v>
-      </c>
-      <c r="MH3">
-        <v>0.04044505494044732</v>
-      </c>
-      <c r="MI3">
-        <v>0.01242259987499887</v>
-      </c>
-      <c r="MJ3">
-        <v>0.007378962604085104</v>
-      </c>
-      <c r="MK3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="ML3">
-        <v>19</v>
-      </c>
-      <c r="MM3">
-        <v>0.6</v>
-      </c>
-      <c r="MN3">
-        <v>0</v>
-      </c>
-      <c r="MO3">
-        <v>0.2388888888888889</v>
-      </c>
-      <c r="MP3">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="MQ3">
-        <v>0.3625259195816805</v>
-      </c>
-      <c r="MR3">
-        <v>0.01242259987499883</v>
-      </c>
-      <c r="MS3">
-        <v>0.04044505494044731</v>
-      </c>
-      <c r="MT3">
-        <v>0.007378962604085149</v>
-      </c>
-      <c r="MU3">
-        <v>-0.5345224838248431</v>
-      </c>
-      <c r="MV3">
-        <v>33</v>
-      </c>
-      <c r="MW3">
-        <v>1.185239731832779</v>
-      </c>
-      <c r="MX3">
-        <v>0</v>
-      </c>
-      <c r="MY3">
-        <v>-0.3123860300252375</v>
-      </c>
-      <c r="MZ3">
-        <v>0.9004036577351888</v>
-      </c>
-      <c r="NA3">
-        <v>0.09318061711599511</v>
-      </c>
-      <c r="NB3">
-        <v>0.1580683724567594</v>
-      </c>
-      <c r="NC3">
-        <v>0.2056869798554296</v>
-      </c>
-      <c r="ND3">
-        <v>0.05513687789923368</v>
-      </c>
-      <c r="NE3">
-        <v>-4.383626666666672</v>
-      </c>
-      <c r="NF3">
-        <v>7</v>
-      </c>
-      <c r="NG3">
-        <v>42.19244999999999</v>
-      </c>
-      <c r="NH3">
-        <v>0</v>
-      </c>
-      <c r="NI3">
-        <v>-2.133382777777781</v>
-      </c>
-      <c r="NJ3">
-        <v>30.15259166666667</v>
-      </c>
-      <c r="NK3">
-        <v>1.391999370091558</v>
-      </c>
-      <c r="NL3">
-        <v>0.875</v>
-      </c>
-      <c r="NM3">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="NN3">
-        <v>1.548611111111111</v>
-      </c>
-      <c r="NO3">
-        <v>1.230769230769231</v>
-      </c>
-      <c r="NP3">
-        <v>2</v>
-      </c>
-      <c r="NQ3">
-        <v>1.492826617826618</v>
-      </c>
-      <c r="NR3">
-        <v>1.064762139431568</v>
-      </c>
-      <c r="NS3">
-        <v>1.38629966509762</v>
-      </c>
-      <c r="NT3">
-        <v>1.172321505803338</v>
-      </c>
-      <c r="NU3">
-        <v>37</v>
-      </c>
-      <c r="NV3">
-        <v>92</v>
-      </c>
-      <c r="NW3">
-        <v>55.5</v>
-      </c>
-      <c r="NX3">
-        <v>21.5</v>
-      </c>
-      <c r="NY3">
-        <v>100.7383</v>
-      </c>
-      <c r="NZ3">
-        <v>3.839457477300663</v>
-      </c>
-      <c r="OA3">
-        <v>104.2441</v>
+      <c r="RH3">
+        <v>58</v>
+      </c>
+      <c r="RI3">
+        <v>32.83333333333334</v>
+      </c>
+      <c r="RJ3">
+        <v>15.48565644574215</v>
+      </c>
+      <c r="RK3">
+        <v>101.5038</v>
+      </c>
+      <c r="RL3">
+        <v>3.551982468988263</v>
+      </c>
+      <c r="RM3">
+        <v>104.4484</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AI1"/>
-    <mergeCell ref="AJ1:BP1"/>
-    <mergeCell ref="BQ1:CW1"/>
-    <mergeCell ref="CX1:ED1"/>
-    <mergeCell ref="EE1:FK1"/>
-    <mergeCell ref="FL1:GR1"/>
-    <mergeCell ref="GS1:HY1"/>
-    <mergeCell ref="HZ1:JF1"/>
-    <mergeCell ref="JG1:KM1"/>
-    <mergeCell ref="KN1:LT1"/>
-    <mergeCell ref="LU1:OA1"/>
+    <mergeCell ref="C1:AR1"/>
+    <mergeCell ref="AS1:CH1"/>
+    <mergeCell ref="CI1:DX1"/>
+    <mergeCell ref="DY1:FN1"/>
+    <mergeCell ref="FO1:HD1"/>
+    <mergeCell ref="HE1:IT1"/>
+    <mergeCell ref="IU1:KJ1"/>
+    <mergeCell ref="KK1:LZ1"/>
+    <mergeCell ref="MA1:NP1"/>
+    <mergeCell ref="NQ1:PF1"/>
+    <mergeCell ref="PG1:RV1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/Fx2_gray/Fx2_gray_30.xlsx
+++ b/out_test/tables/Fx2_gray/Fx2_gray_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="128">
   <si>
     <t>RWS</t>
   </si>
@@ -329,6 +329,66 @@
   </si>
   <si>
     <t>nonMax_F_found</t>
+  </si>
+  <si>
+    <t>Min_I_start</t>
+  </si>
+  <si>
+    <t>Max_I_start</t>
+  </si>
+  <si>
+    <t>Avg_I_start</t>
+  </si>
+  <si>
+    <t>Sigma_I_start</t>
+  </si>
+  <si>
+    <t>Min_GR_start</t>
+  </si>
+  <si>
+    <t>Max_GR_start</t>
+  </si>
+  <si>
+    <t>Avg_GR_start</t>
+  </si>
+  <si>
+    <t>Sigma_GR_start</t>
+  </si>
+  <si>
+    <t>Min_Pr_min</t>
+  </si>
+  <si>
+    <t>Max_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_min</t>
+  </si>
+  <si>
+    <t>Avg_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_avg</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_min</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_max</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_avg</t>
+  </si>
+  <si>
+    <t>Min_Pr_start</t>
+  </si>
+  <si>
+    <t>Max_Pr_start</t>
+  </si>
+  <si>
+    <t>Avg_Pr_start</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_start</t>
   </si>
   <si>
     <t>Aggregated</t>
@@ -701,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:RV3"/>
+  <dimension ref="A1:SR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -712,12 +772,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:490">
+    <row r="1" spans="1:512">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
@@ -1160,7 +1220,7 @@
       <c r="PE1" s="1"/>
       <c r="PF1" s="1"/>
       <c r="PG1" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="PH1" s="1"/>
       <c r="PI1" s="1"/>
@@ -1229,8 +1289,30 @@
       <c r="RT1" s="1"/>
       <c r="RU1" s="1"/>
       <c r="RV1" s="1"/>
+      <c r="RW1" s="1"/>
+      <c r="RX1" s="1"/>
+      <c r="RY1" s="1"/>
+      <c r="RZ1" s="1"/>
+      <c r="SA1" s="1"/>
+      <c r="SB1" s="1"/>
+      <c r="SC1" s="1"/>
+      <c r="SD1" s="1"/>
+      <c r="SE1" s="1"/>
+      <c r="SF1" s="1"/>
+      <c r="SG1" s="1"/>
+      <c r="SH1" s="1"/>
+      <c r="SI1" s="1"/>
+      <c r="SJ1" s="1"/>
+      <c r="SK1" s="1"/>
+      <c r="SL1" s="1"/>
+      <c r="SM1" s="1"/>
+      <c r="SN1" s="1"/>
+      <c r="SO1" s="1"/>
+      <c r="SP1" s="1"/>
+      <c r="SQ1" s="1"/>
+      <c r="SR1" s="1"/>
     </row>
-    <row r="2" spans="1:490">
+    <row r="2" spans="1:512">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -2697,8 +2779,74 @@
       <c r="RV2" t="s">
         <v>43</v>
       </c>
+      <c r="RW2" t="s">
+        <v>105</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>106</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>110</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>112</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>115</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>117</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>118</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>119</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>120</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>121</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>122</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>123</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="3" spans="1:490">
+    <row r="3" spans="1:512">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>104.2441</v>
@@ -2715,109 +2863,109 @@
         <v>104.2441</v>
       </c>
       <c r="F3">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="J3">
-        <v>0.6318181818181816</v>
+        <v>0.6446428571428573</v>
       </c>
       <c r="K3">
-        <v>0.2666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>0.5666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3681818181818181</v>
+        <v>0.3553571428571429</v>
       </c>
       <c r="P3">
-        <v>-0.3364063634574893</v>
+        <v>-0.3363363969983199</v>
       </c>
       <c r="Q3">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="R3">
-        <v>1.106365558219442</v>
+        <v>0.9426654151548377</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0705767587313284</v>
+        <v>0.008412729475345481</v>
       </c>
       <c r="U3">
-        <v>-0.6500100000000089</v>
+        <v>-0.8388366666666798</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>41.30580999999999</v>
+        <v>35.19411666666667</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>1.108549696969697</v>
+        <v>0.5446390476190477</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1.384615384615385</v>
       </c>
       <c r="AB3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AC3">
-        <v>0.9644445369023297</v>
+        <v>1.05407976277701</v>
       </c>
       <c r="AD3">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="AE3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>11.5</v>
+        <v>56</v>
       </c>
       <c r="AG3">
-        <v>6.133922073192648</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>11.5</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>6.133922073192648</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.07890102890771908</v>
+        <v>0.4033024497606798</v>
       </c>
       <c r="AK3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL3">
-        <v>1.310520076928465</v>
+        <v>1.419131798366012</v>
       </c>
       <c r="AM3">
-        <v>1.002060949901807</v>
+        <v>1.001434344696047</v>
       </c>
       <c r="AN3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AO3">
         <v>2.714717668107011</v>
@@ -2826,112 +2974,124 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.043225444122084</v>
+        <v>1.017751409661064</v>
       </c>
       <c r="AR3">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="AS3">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AT3">
-        <v>104.6529</v>
+        <v>89.30249999999998</v>
       </c>
       <c r="AU3">
-        <v>104.6529</v>
+        <v>89.30249999999994</v>
       </c>
       <c r="AV3">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX3">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AY3">
+        <v>19</v>
+      </c>
+      <c r="AZ3">
+        <v>0.6352941176470588</v>
+      </c>
+      <c r="BA3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BB3">
+        <v>19</v>
+      </c>
+      <c r="BC3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BD3">
         <v>3</v>
       </c>
-      <c r="AZ3">
-        <v>0.6374999999999997</v>
-      </c>
-      <c r="BA3">
-        <v>0.3</v>
-      </c>
-      <c r="BB3">
-        <v>3</v>
-      </c>
-      <c r="BC3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
       <c r="BE3">
-        <v>0.3624999999999999</v>
+        <v>0.3647058823529413</v>
       </c>
       <c r="BF3">
-        <v>-0.1961161351381853</v>
+        <v>-0.2670316433750892</v>
       </c>
       <c r="BG3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BH3">
-        <v>0.9826789121548007</v>
+        <v>0.6818979759398009</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.1360460989193846</v>
+        <v>0.06351234088198308</v>
       </c>
       <c r="BK3">
-        <v>-1.444053333333343</v>
+        <v>-0.6863500000000045</v>
       </c>
       <c r="BL3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BM3">
-        <v>32.76778666666666</v>
+        <v>22.73813666666667</v>
       </c>
       <c r="BN3">
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.664172708333335</v>
+        <v>0.6266474509803902</v>
       </c>
       <c r="BP3">
-        <v>2.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="BQ3">
-        <v>1.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="BS3">
-        <v>1.429111722989412</v>
+        <v>1.016043083900227</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BU3">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="BV3">
+        <v>19</v>
+      </c>
+      <c r="BW3">
+        <v>8.732124598286491</v>
+      </c>
+      <c r="BX3">
+        <v>16</v>
+      </c>
+      <c r="BY3">
+        <v>8.732124598286491</v>
       </c>
       <c r="BZ3">
-        <v>0.6144928808858201</v>
+        <v>0.3853846066379635</v>
       </c>
       <c r="CA3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CB3">
-        <v>1.341254411288935</v>
+        <v>1.539092755086464</v>
       </c>
       <c r="CC3">
-        <v>1.013991565451721</v>
+        <v>1.001834667658571</v>
       </c>
       <c r="CD3">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="CE3">
         <v>2.312344572879922</v>
@@ -2940,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.077226269582513</v>
+        <v>1.056395494640044</v>
       </c>
       <c r="CH3">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="CI3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="CJ3">
         <v>104.6529</v>
@@ -2955,76 +3115,76 @@
         <v>104.6529</v>
       </c>
       <c r="CL3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="CO3">
+        <v>6</v>
+      </c>
+      <c r="CP3">
+        <v>0.629032258064516</v>
+      </c>
+      <c r="CQ3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="CR3">
+        <v>6</v>
+      </c>
+      <c r="CS3">
         <v>0.4666666666666667</v>
       </c>
-      <c r="CM3">
-        <v>17</v>
-      </c>
-      <c r="CN3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="CO3">
-        <v>4</v>
-      </c>
-      <c r="CP3">
-        <v>0.6259259259259258</v>
-      </c>
-      <c r="CQ3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="CR3">
-        <v>4</v>
-      </c>
-      <c r="CS3">
-        <v>0.5333333333333333</v>
-      </c>
       <c r="CT3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.3740740740740741</v>
+        <v>0.3709677419354841</v>
       </c>
       <c r="CV3">
-        <v>-0.2672612419124276</v>
+        <v>-0.5366563145999498</v>
       </c>
       <c r="CW3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="CX3">
-        <v>0.751284125649448</v>
+        <v>0.5562693493921044</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CZ3">
-        <v>0.1343393549771496</v>
+        <v>0.07437947251862417</v>
       </c>
       <c r="DA3">
-        <v>-1.123733333333348</v>
+        <v>-5.583060000000003</v>
       </c>
       <c r="DB3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="DC3">
-        <v>22.34955333333333</v>
+        <v>15.64951666666666</v>
       </c>
       <c r="DD3">
         <v>0</v>
       </c>
       <c r="DE3">
-        <v>2.156438703703705</v>
+        <v>1.468255913978495</v>
       </c>
       <c r="DF3">
-        <v>2.333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="DG3">
-        <v>1.25</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="DH3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DI3">
-        <v>1.265662717628662</v>
+        <v>1.141105426202849</v>
       </c>
       <c r="DJ3">
         <v>0</v>
@@ -3033,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.4152479533907029</v>
+        <v>0.117954808057333</v>
       </c>
       <c r="DQ3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DR3">
-        <v>1.589575689983055</v>
+        <v>1.769669732806722</v>
       </c>
       <c r="DS3">
-        <v>1.005397839263132</v>
+        <v>1.008971158493359</v>
       </c>
       <c r="DT3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="DU3">
         <v>2.406508084516338</v>
@@ -3054,124 +3214,124 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>1.098400735996597</v>
+        <v>1.131269511113689</v>
       </c>
       <c r="DX3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="DY3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="DZ3">
-        <v>103.8361</v>
+        <v>97.41689999999998</v>
       </c>
       <c r="EA3">
-        <v>103.8361</v>
+        <v>97.41690000000001</v>
       </c>
       <c r="EB3">
         <v>0.5333333333333333</v>
       </c>
       <c r="EC3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="ED3">
         <v>0.7333333333333333</v>
       </c>
       <c r="EE3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EF3">
-        <v>0.6470085470085473</v>
+        <v>0.6263157894736839</v>
       </c>
       <c r="EG3">
         <v>0.2666666666666667</v>
       </c>
       <c r="EH3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EI3">
         <v>0.4666666666666667</v>
       </c>
       <c r="EJ3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="EK3">
-        <v>0.3529914529914532</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="EL3">
-        <v>-0.3135037452231182</v>
+        <v>-0.3713906763541038</v>
       </c>
       <c r="EM3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="EN3">
-        <v>0.5610749689774914</v>
+        <v>0.6298989255860694</v>
       </c>
       <c r="EO3">
         <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.07873920273194442</v>
+        <v>0.08796093106692689</v>
       </c>
       <c r="EQ3">
-        <v>-1.120053333333331</v>
+        <v>-3.046186666666671</v>
       </c>
       <c r="ER3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="ES3">
-        <v>16.60505333333333</v>
+        <v>19.85482999999999</v>
       </c>
       <c r="ET3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>1.190622307692307</v>
+        <v>1.726986491228071</v>
       </c>
       <c r="EV3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="EW3">
         <v>0</v>
       </c>
       <c r="EX3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="EY3">
-        <v>1.042814427402662</v>
+        <v>0.9542501368363435</v>
       </c>
       <c r="EZ3">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="FA3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="FB3">
-        <v>26.5</v>
+        <v>9.5</v>
       </c>
       <c r="FC3">
-        <v>7.288689868556625</v>
+        <v>5.556527692723217</v>
       </c>
       <c r="FD3">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="FE3">
-        <v>7.288689868556625</v>
+        <v>5.556527692723217</v>
       </c>
       <c r="FF3">
-        <v>0.5610749689774914</v>
+        <v>0.6298989255860694</v>
       </c>
       <c r="FG3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>1.823163129119751</v>
+        <v>1.607266549979989</v>
       </c>
       <c r="FI3">
-        <v>1.002572180859846</v>
+        <v>1.007187076771354</v>
       </c>
       <c r="FJ3">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="FK3">
         <v>2.338647479090561</v>
@@ -3180,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>1.061070508579384</v>
+        <v>1.113105385603541</v>
       </c>
       <c r="FN3">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="FO3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="FP3">
         <v>104.6529</v>
@@ -3195,76 +3355,76 @@
         <v>104.6529</v>
       </c>
       <c r="FR3">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="FS3">
         <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="FU3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="FV3">
-        <v>0.6527777777777778</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="FW3">
-        <v>0.2666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="FX3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="FY3">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="FZ3">
         <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.3472222222222222</v>
+        <v>0.3933333333333334</v>
       </c>
       <c r="GB3">
-        <v>-0.2672612419124286</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="GD3">
-        <v>1.138311383561731</v>
+        <v>1.129459635414878</v>
       </c>
       <c r="GE3">
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.1134271457663191</v>
+        <v>0.2595692504272548</v>
       </c>
       <c r="GG3">
-        <v>-0.5349333333333419</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="GI3">
-        <v>40.52188333333332</v>
+        <v>40.20677666666668</v>
       </c>
       <c r="GJ3">
         <v>0</v>
       </c>
       <c r="GK3">
-        <v>2.723638333333336</v>
+        <v>6.599753333333334</v>
       </c>
       <c r="GL3">
-        <v>1.5</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="GM3">
-        <v>1.5</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="GN3">
         <v>2</v>
       </c>
       <c r="GO3">
-        <v>1.277212655284446</v>
+        <v>1.653909605663991</v>
       </c>
       <c r="GP3">
         <v>0</v>
@@ -3273,40 +3433,40 @@
         <v>0</v>
       </c>
       <c r="GV3">
-        <v>0.5000413106660544</v>
+        <v>0.3975812181058986</v>
       </c>
       <c r="GW3">
-        <v>3.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="GX3">
-        <v>1.454133738247062</v>
+        <v>1.460528445904958</v>
       </c>
       <c r="GY3">
-        <v>1.002562298762631</v>
+        <v>1.018796939780401</v>
       </c>
       <c r="GZ3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="HA3">
-        <v>3.327875888243707</v>
+        <v>3.327875888243708</v>
       </c>
       <c r="HB3">
         <v>0</v>
       </c>
       <c r="HC3">
-        <v>1.088618805572884</v>
+        <v>1.152298326863784</v>
       </c>
       <c r="HD3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="HE3">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="HF3">
-        <v>102.01</v>
+        <v>104.6529</v>
       </c>
       <c r="HG3">
-        <v>102.01</v>
+        <v>104.6529</v>
       </c>
       <c r="HH3">
         <v>0.4666666666666667</v>
@@ -3315,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="HJ3">
-        <v>0.7</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="HL3">
-        <v>0.6166666666666667</v>
+        <v>0.634722222222223</v>
       </c>
       <c r="HM3">
-        <v>0.3</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="HO3">
         <v>0.5333333333333333</v>
@@ -3336,82 +3496,70 @@
         <v>0</v>
       </c>
       <c r="HQ3">
-        <v>0.3833333333333334</v>
+        <v>0.3652777777777776</v>
       </c>
       <c r="HR3">
-        <v>3.855882435273916E-15</v>
+        <v>-0.4902903378454574</v>
       </c>
       <c r="HS3">
+        <v>55</v>
+      </c>
+      <c r="HT3">
+        <v>0.967891777671535</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>0.02873877047957067</v>
+      </c>
+      <c r="HW3">
+        <v>-1.932943333333313</v>
+      </c>
+      <c r="HX3">
+        <v>6</v>
+      </c>
+      <c r="HY3">
+        <v>31.23987666666666</v>
+      </c>
+      <c r="HZ3">
+        <v>0</v>
+      </c>
+      <c r="IA3">
+        <v>0.445145138888889</v>
+      </c>
+      <c r="IB3">
+        <v>1</v>
+      </c>
+      <c r="IC3">
+        <v>1.25</v>
+      </c>
+      <c r="ID3">
         <v>8</v>
       </c>
-      <c r="HT3">
-        <v>0.9976106753570971</v>
-      </c>
-      <c r="HU3">
-        <v>0</v>
-      </c>
-      <c r="HV3">
-        <v>0.2013393254583378</v>
-      </c>
-      <c r="HW3">
-        <v>2.842170943040401E-14</v>
-      </c>
-      <c r="HX3">
-        <v>8</v>
-      </c>
-      <c r="HY3">
-        <v>32.19909</v>
-      </c>
-      <c r="HZ3">
-        <v>0</v>
-      </c>
-      <c r="IA3">
-        <v>3.913182000000003</v>
-      </c>
-      <c r="IB3">
-        <v>0.5</v>
-      </c>
-      <c r="IC3">
-        <v>0</v>
-      </c>
-      <c r="ID3">
-        <v>3</v>
-      </c>
       <c r="IE3">
-        <v>1.015088364112865</v>
+        <v>1.072711633109697</v>
       </c>
       <c r="IF3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="IG3">
-        <v>9</v>
-      </c>
-      <c r="IH3">
-        <v>6</v>
-      </c>
-      <c r="II3">
-        <v>2.380476142847617</v>
-      </c>
-      <c r="IJ3">
-        <v>5</v>
-      </c>
-      <c r="IK3">
-        <v>2.380476142847617</v>
+        <v>0</v>
       </c>
       <c r="IL3">
-        <v>0.2178875717630655</v>
+        <v>0.4155809178645583</v>
       </c>
       <c r="IM3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>1.66437546379364</v>
+        <v>1.690159019664949</v>
       </c>
       <c r="IO3">
-        <v>1.008093605162514</v>
+        <v>1.000842507840672</v>
       </c>
       <c r="IP3">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="IQ3">
         <v>3.411212653308817</v>
@@ -3420,13 +3568,13 @@
         <v>0</v>
       </c>
       <c r="IS3">
-        <v>1.169415464041436</v>
+        <v>1.035385180486907</v>
       </c>
       <c r="IT3">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="IU3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="IV3">
         <v>104.6529</v>
@@ -3435,223 +3583,211 @@
         <v>104.6529</v>
       </c>
       <c r="IX3">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="IY3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IZ3">
-        <v>0.6333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="JA3">
+        <v>8</v>
+      </c>
+      <c r="JB3">
+        <v>0.6375</v>
+      </c>
+      <c r="JC3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="JD3">
+        <v>8</v>
+      </c>
+      <c r="JE3">
+        <v>0.5</v>
+      </c>
+      <c r="JF3">
         <v>2</v>
       </c>
-      <c r="JB3">
-        <v>0.5933333333333333</v>
-      </c>
-      <c r="JC3">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="JD3">
-        <v>2</v>
-      </c>
-      <c r="JE3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="JF3">
-        <v>1</v>
-      </c>
       <c r="JG3">
-        <v>0.4066666666666667</v>
+        <v>0.3625</v>
       </c>
       <c r="JH3">
-        <v>0.267261241912426</v>
+        <v>0</v>
       </c>
       <c r="JI3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="JJ3">
-        <v>0.6110898627254726</v>
+        <v>0.8565157499812222</v>
       </c>
       <c r="JK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL3">
-        <v>0.4624886285114255</v>
+        <v>0.2397851945320706</v>
       </c>
       <c r="JM3">
-        <v>1.872693333333345</v>
+        <v>0</v>
       </c>
       <c r="JN3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="JO3">
-        <v>17.01993666666668</v>
+        <v>28.48865000000001</v>
       </c>
       <c r="JP3">
         <v>0</v>
       </c>
       <c r="JQ3">
-        <v>9.588865333333334</v>
+        <v>4.559451666666668</v>
       </c>
       <c r="JR3">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="JS3">
-        <v>1.571428571428571</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="JT3">
+        <v>3</v>
+      </c>
+      <c r="JU3">
+        <v>1.512016818544476</v>
+      </c>
+      <c r="JV3">
+        <v>0</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0.3626159658911767</v>
+      </c>
+      <c r="KC3">
         <v>4</v>
       </c>
-      <c r="JU3">
-        <v>1.610930735930736</v>
-      </c>
-      <c r="JV3">
-        <v>0</v>
-      </c>
-      <c r="JW3">
-        <v>0</v>
-      </c>
-      <c r="KB3">
-        <v>0.6110898627254726</v>
-      </c>
-      <c r="KC3">
-        <v>2</v>
-      </c>
       <c r="KD3">
-        <v>1.845451116973965</v>
+        <v>1.535011220256834</v>
       </c>
       <c r="KE3">
-        <v>1.018220369408351</v>
+        <v>1.001675634544489</v>
       </c>
       <c r="KF3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="KG3">
-        <v>2.636847944134472</v>
+        <v>2.636847944134471</v>
       </c>
       <c r="KH3">
         <v>0</v>
       </c>
       <c r="KI3">
-        <v>1.330963440462721</v>
+        <v>1.136174368081194</v>
       </c>
       <c r="KJ3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="KK3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="KL3">
-        <v>100.2001</v>
+        <v>104.6529</v>
       </c>
       <c r="KM3">
-        <v>100.2001</v>
+        <v>104.6529</v>
       </c>
       <c r="KN3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="KO3">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="KP3">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="KQ3">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="KR3">
-        <v>0.6286549707602345</v>
+        <v>0.631547619047619</v>
       </c>
       <c r="KS3">
-        <v>0.2666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="KT3">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="KU3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="KV3">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="KW3">
-        <v>0.371345029239766</v>
+        <v>0.3684523809523809</v>
       </c>
       <c r="KX3">
-        <v>-0.4008918628686385</v>
+        <v>-0.3577708763999907</v>
       </c>
       <c r="KY3">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="KZ3">
-        <v>0.7788900110934168</v>
+        <v>0.6938282979939921</v>
       </c>
       <c r="LA3">
         <v>0</v>
       </c>
       <c r="LB3">
-        <v>0.05983579810991604</v>
+        <v>0.0468978431210859</v>
       </c>
       <c r="LC3">
-        <v>-1.940636666666634</v>
+        <v>-0.5748833333333323</v>
       </c>
       <c r="LD3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="LE3">
-        <v>28.37812333333333</v>
+        <v>25.27898</v>
       </c>
       <c r="LF3">
         <v>0</v>
       </c>
       <c r="LG3">
-        <v>0.5271557894736838</v>
+        <v>0.6714254166666668</v>
       </c>
       <c r="LH3">
-        <v>0.6666666666666666</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="LI3">
-        <v>1.416666666666667</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="LJ3">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="LK3">
-        <v>1.057614302616254</v>
+        <v>1.094895558163317</v>
       </c>
       <c r="LL3">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="LM3">
-        <v>56</v>
-      </c>
-      <c r="LN3">
-        <v>29.5</v>
-      </c>
-      <c r="LO3">
-        <v>15.94913790773659</v>
-      </c>
-      <c r="LP3">
-        <v>28.5</v>
-      </c>
-      <c r="LQ3">
-        <v>15.94913790773659</v>
+        <v>0</v>
       </c>
       <c r="LR3">
-        <v>0.4311197687333943</v>
+        <v>0.6345248426856089</v>
       </c>
       <c r="LS3">
         <v>3</v>
       </c>
       <c r="LT3">
-        <v>1.49179740854958</v>
+        <v>1.560747175260116</v>
       </c>
       <c r="LU3">
-        <v>1.001971942813658</v>
+        <v>1.00220213411586</v>
       </c>
       <c r="LV3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="LW3">
         <v>2.505210366009111</v>
@@ -3660,124 +3796,124 @@
         <v>0</v>
       </c>
       <c r="LY3">
-        <v>1.058148825775022</v>
+        <v>1.031706943159961</v>
       </c>
       <c r="LZ3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="MA3">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="MB3">
-        <v>94.28410000000002</v>
+        <v>103.6324</v>
       </c>
       <c r="MC3">
-        <v>94.2841</v>
+        <v>103.6324</v>
       </c>
       <c r="MD3">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="ME3">
         <v>0</v>
       </c>
       <c r="MF3">
-        <v>0.7666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="MG3">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="MH3">
-        <v>0.643089430894309</v>
+        <v>0.6333333333333331</v>
       </c>
       <c r="MI3">
-        <v>0.2333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="MJ3">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="MK3">
-        <v>0.5</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="ML3">
         <v>0</v>
       </c>
       <c r="MM3">
-        <v>0.3569105691056914</v>
+        <v>0.3666666666666668</v>
       </c>
       <c r="MN3">
-        <v>-0.4364357804719889</v>
+        <v>-0.2941742027072757</v>
       </c>
       <c r="MO3">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="MP3">
-        <v>0.9125176080546578</v>
+        <v>1.069334801229266</v>
       </c>
       <c r="MQ3">
         <v>0</v>
       </c>
       <c r="MR3">
-        <v>0.05986691419154304</v>
+        <v>0.05841961613245402</v>
       </c>
       <c r="MS3">
-        <v>-2.487613333333329</v>
+        <v>-2.954533333333345</v>
       </c>
       <c r="MT3">
+        <v>3</v>
+      </c>
+      <c r="MU3">
+        <v>35.33941333333334</v>
+      </c>
+      <c r="MV3">
+        <v>0</v>
+      </c>
+      <c r="MW3">
+        <v>0.7286982795698915</v>
+      </c>
+      <c r="MX3">
+        <v>1.25</v>
+      </c>
+      <c r="MY3">
+        <v>0</v>
+      </c>
+      <c r="MZ3">
+        <v>10</v>
+      </c>
+      <c r="NA3">
+        <v>1.079252759688492</v>
+      </c>
+      <c r="NB3">
+        <v>31</v>
+      </c>
+      <c r="NC3">
+        <v>23</v>
+      </c>
+      <c r="ND3">
+        <v>20</v>
+      </c>
+      <c r="NE3">
+        <v>6.422616289332564</v>
+      </c>
+      <c r="NF3">
+        <v>12</v>
+      </c>
+      <c r="NG3">
+        <v>6.422616289332564</v>
+      </c>
+      <c r="NH3">
+        <v>0.1960742165068192</v>
+      </c>
+      <c r="NI3">
         <v>4</v>
       </c>
-      <c r="MU3">
-        <v>30.15691333333335</v>
-      </c>
-      <c r="MV3">
-        <v>0</v>
-      </c>
-      <c r="MW3">
-        <v>0.4493621138211378</v>
-      </c>
-      <c r="MX3">
-        <v>0.5</v>
-      </c>
-      <c r="MY3">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="MZ3">
-        <v>25</v>
-      </c>
-      <c r="NA3">
-        <v>1.068777063258049</v>
-      </c>
-      <c r="NB3">
-        <v>41</v>
-      </c>
-      <c r="NC3">
-        <v>38</v>
-      </c>
-      <c r="ND3">
-        <v>22.5</v>
-      </c>
-      <c r="NE3">
-        <v>10.75290658380328</v>
-      </c>
-      <c r="NF3">
-        <v>19.5</v>
-      </c>
-      <c r="NG3">
-        <v>10.75290658380328</v>
-      </c>
-      <c r="NH3">
-        <v>0.2883641757606832</v>
-      </c>
-      <c r="NI3">
-        <v>2</v>
-      </c>
       <c r="NJ3">
-        <v>1.379548517194511</v>
+        <v>1.29132952294398</v>
       </c>
       <c r="NK3">
-        <v>1.001562864440126</v>
+        <v>1.004446224973427</v>
       </c>
       <c r="NL3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="NM3">
         <v>2.289830458780474</v>
@@ -3786,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="NO3">
-        <v>1.049065920279357</v>
+        <v>1.056609982387732</v>
       </c>
       <c r="NP3">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="NQ3">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="NR3">
         <v>104.4484</v>
@@ -3801,109 +3937,109 @@
         <v>104.4484</v>
       </c>
       <c r="NT3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="NU3">
         <v>0</v>
       </c>
       <c r="NV3">
-        <v>0.7</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="NW3">
         <v>7</v>
       </c>
       <c r="NX3">
-        <v>0.6287878787878786</v>
+        <v>0.6385964912280704</v>
       </c>
       <c r="NY3">
-        <v>0.3</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="NZ3">
         <v>7</v>
       </c>
       <c r="OA3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="OB3">
         <v>0</v>
       </c>
       <c r="OC3">
-        <v>0.3712121212121212</v>
+        <v>0.3614035087719299</v>
       </c>
       <c r="OD3">
-        <v>-0.2909571869813384</v>
+        <v>-0.2672612419126659</v>
       </c>
       <c r="OE3">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="OF3">
-        <v>0.9074426225254594</v>
+        <v>0.9291518535341</v>
       </c>
       <c r="OG3">
         <v>0</v>
       </c>
       <c r="OH3">
-        <v>0.1392302110648851</v>
+        <v>0.04005884597293699</v>
       </c>
       <c r="OI3">
-        <v>-0.6363733333333528</v>
+        <v>-0.02045000000001096</v>
       </c>
       <c r="OJ3">
+        <v>19</v>
+      </c>
+      <c r="OK3">
+        <v>32.75672333333334</v>
+      </c>
+      <c r="OL3">
+        <v>0</v>
+      </c>
+      <c r="OM3">
+        <v>0.8368533333333342</v>
+      </c>
+      <c r="ON3">
+        <v>1.5</v>
+      </c>
+      <c r="OO3">
+        <v>0</v>
+      </c>
+      <c r="OP3">
+        <v>39</v>
+      </c>
+      <c r="OQ3">
+        <v>1.116419691419692</v>
+      </c>
+      <c r="OR3">
+        <v>38</v>
+      </c>
+      <c r="OS3">
+        <v>1</v>
+      </c>
+      <c r="OT3">
+        <v>38</v>
+      </c>
+      <c r="OU3">
+        <v>0</v>
+      </c>
+      <c r="OV3">
+        <v>1</v>
+      </c>
+      <c r="OW3">
+        <v>0</v>
+      </c>
+      <c r="OX3">
+        <v>0.647460285260348</v>
+      </c>
+      <c r="OY3">
         <v>4</v>
       </c>
-      <c r="OK3">
-        <v>31.99137666666668</v>
-      </c>
-      <c r="OL3">
-        <v>0</v>
-      </c>
-      <c r="OM3">
-        <v>1.480262424242426</v>
-      </c>
-      <c r="ON3">
-        <v>1</v>
-      </c>
-      <c r="OO3">
-        <v>1.5</v>
-      </c>
-      <c r="OP3">
-        <v>12</v>
-      </c>
-      <c r="OQ3">
-        <v>1.157293133871408</v>
-      </c>
-      <c r="OR3">
-        <v>22</v>
-      </c>
-      <c r="OS3">
-        <v>13</v>
-      </c>
-      <c r="OT3">
-        <v>16</v>
-      </c>
-      <c r="OU3">
-        <v>3.535533905932737</v>
-      </c>
-      <c r="OV3">
-        <v>7</v>
-      </c>
-      <c r="OW3">
-        <v>3.535533905932737</v>
-      </c>
-      <c r="OX3">
-        <v>0.3591363766832663</v>
-      </c>
-      <c r="OY3">
-        <v>1</v>
-      </c>
       <c r="OZ3">
-        <v>1.455885863566106</v>
+        <v>1.440548100630658</v>
       </c>
       <c r="PA3">
-        <v>1.001563402571559</v>
+        <v>1.001239116669747</v>
       </c>
       <c r="PB3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="PC3">
         <v>2.623455018331088</v>
@@ -3912,31 +4048,31 @@
         <v>0</v>
       </c>
       <c r="PE3">
-        <v>1.113751124354341</v>
+        <v>1.024131779726103</v>
       </c>
       <c r="PF3">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="PG3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="PH3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PI3">
         <v>6</v>
       </c>
       <c r="PJ3">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="PK3">
-        <v>13.75</v>
+        <v>40.2</v>
       </c>
       <c r="PL3">
-        <v>4.968651728587948</v>
+        <v>33.81952099010275</v>
       </c>
       <c r="PM3">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="PN3">
         <v>0</v>
@@ -3945,154 +4081,226 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="PP3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="PQ3">
-        <v>0.4666666666666667</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="PR3">
-        <v>0.7083333333333334</v>
+        <v>0.7466666666666666</v>
       </c>
       <c r="PS3">
-        <v>0.6273842592592591</v>
+        <v>0.6278937532002049</v>
       </c>
       <c r="PT3">
-        <v>0.06236095644623234</v>
+        <v>0.03887301263230199</v>
       </c>
       <c r="PU3">
-        <v>0.04930066485916349</v>
+        <v>0.02666666666666671</v>
       </c>
       <c r="PV3">
-        <v>0.02184462912255682</v>
+        <v>0.01099221632267589</v>
       </c>
       <c r="PW3">
         <v>0.2333333333333333</v>
       </c>
       <c r="PX3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="PY3">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="PZ3">
         <v>0</v>
       </c>
       <c r="QA3">
-        <v>0.2916666666666667</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="QB3">
-        <v>0.5333333333333334</v>
+        <v>0.5066666666666666</v>
       </c>
       <c r="QC3">
-        <v>0.3726157407407407</v>
+        <v>0.3721062467997952</v>
       </c>
       <c r="QD3">
-        <v>0.04930066485916346</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="QE3">
-        <v>0.06236095644623234</v>
+        <v>0.03887301263230199</v>
       </c>
       <c r="QF3">
-        <v>0.02184462912255688</v>
+        <v>0.01099221632267586</v>
       </c>
       <c r="QG3">
-        <v>-0.2672612419124286</v>
+        <v>-0.5366563145999498</v>
       </c>
       <c r="QH3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="QI3">
-        <v>1.138311383561731</v>
+        <v>1.129459635414878</v>
       </c>
       <c r="QJ3">
         <v>0</v>
       </c>
       <c r="QK3">
-        <v>-0.1158443442626539</v>
+        <v>-0.2769435057690796</v>
       </c>
       <c r="QL3">
-        <v>0.870841071022863</v>
+        <v>0.8407929620907464</v>
       </c>
       <c r="QM3">
-        <v>0.2115753070435697</v>
+        <v>0.1298741062157212</v>
       </c>
       <c r="QN3">
-        <v>0.2230849638347916</v>
+        <v>0.2336219546388093</v>
       </c>
       <c r="QO3">
-        <v>0.2036004814567418</v>
+        <v>0.2011377945316433</v>
       </c>
       <c r="QP3">
-        <v>0.1451383908754069</v>
+        <v>0.09909020991775508</v>
       </c>
       <c r="QQ3">
-        <v>-1.444053333333343</v>
+        <v>-5.583060000000003</v>
       </c>
       <c r="QR3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="QS3">
-        <v>40.52188333333332</v>
+        <v>40.20677666666668</v>
       </c>
       <c r="QT3">
         <v>0</v>
       </c>
       <c r="QU3">
-        <v>-0.3075066666666721</v>
+        <v>-1.61817733333333</v>
       </c>
       <c r="QV3">
-        <v>28.16479</v>
+        <v>28.17276</v>
       </c>
       <c r="QW3">
-        <v>4.033278769675928</v>
+        <v>2.748806293906811</v>
       </c>
       <c r="QX3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="QY3">
-        <v>2.333333333333333</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="QZ3">
-        <v>2</v>
+        <v>1.453787878787879</v>
       </c>
       <c r="RA3">
         <v>1.25</v>
       </c>
       <c r="RB3">
-        <v>1.666666666666667</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="RC3">
-        <v>1.49702380952381</v>
+        <v>1.470779220779221</v>
       </c>
       <c r="RD3">
-        <v>1.265662717628662</v>
+        <v>1.072711633109697</v>
       </c>
       <c r="RE3">
-        <v>1.610930735930736</v>
+        <v>1.653909605663991</v>
       </c>
       <c r="RF3">
-        <v>1.395729457958314</v>
+        <v>1.294927808336866</v>
       </c>
       <c r="RG3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="RH3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="RI3">
-        <v>32.83333333333334</v>
+        <v>36.6</v>
       </c>
       <c r="RJ3">
-        <v>15.48565644574215</v>
+        <v>12.00999583680194</v>
       </c>
       <c r="RK3">
-        <v>101.5038</v>
+        <v>99.80886000000001</v>
       </c>
       <c r="RL3">
-        <v>3.551982468988263</v>
+        <v>5.863807917931839</v>
       </c>
       <c r="RM3">
         <v>104.4484</v>
+      </c>
+      <c r="RR3">
+        <v>93</v>
+      </c>
+      <c r="RT3">
+        <v>0</v>
+      </c>
+      <c r="RW3">
+        <v>0.117954808057333</v>
+      </c>
+      <c r="RX3">
+        <v>0.6345248426856089</v>
+      </c>
+      <c r="RY3">
+        <v>0.3856515505209151</v>
+      </c>
+      <c r="RZ3">
+        <v>0.164419088694725</v>
+      </c>
+      <c r="SA3">
+        <v>1</v>
+      </c>
+      <c r="SB3">
+        <v>4</v>
+      </c>
+      <c r="SC3">
+        <v>2.733333333333333</v>
+      </c>
+      <c r="SD3">
+        <v>1.103529690483123</v>
+      </c>
+      <c r="SE3">
+        <v>1.000842507840672</v>
+      </c>
+      <c r="SF3">
+        <v>93</v>
+      </c>
+      <c r="SG3">
+        <v>3.411212653308817</v>
+      </c>
+      <c r="SH3">
+        <v>0</v>
+      </c>
+      <c r="SI3">
+        <v>1.006497674954956</v>
+      </c>
+      <c r="SJ3">
+        <v>2.857530987242489</v>
+      </c>
+      <c r="SK3">
+        <v>1.097366865941107</v>
+      </c>
+      <c r="SL3">
+        <v>0.006798157043966946</v>
+      </c>
+      <c r="SM3">
+        <v>0.4252152861036494</v>
+      </c>
+      <c r="SN3">
+        <v>0.05258484907750482</v>
+      </c>
+      <c r="SO3">
+        <v>1.460528445904958</v>
+      </c>
+      <c r="SP3">
+        <v>1.769669732806722</v>
+      </c>
+      <c r="SQ3">
+        <v>1.603223118778716</v>
+      </c>
+      <c r="SR3">
+        <v>0.1114281514955646</v>
       </c>
     </row>
   </sheetData>
@@ -4107,7 +4315,7 @@
     <mergeCell ref="KK1:LZ1"/>
     <mergeCell ref="MA1:NP1"/>
     <mergeCell ref="NQ1:PF1"/>
-    <mergeCell ref="PG1:RV1"/>
+    <mergeCell ref="PG1:SR1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
